--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T10:27:30+00:00</t>
+    <t>2023-06-30T12:07:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiant de l'essai clinique</t>
+    <t>Business Identifier for study</t>
   </si>
   <si>
     <t>Identifiers assigned to this research study by the sponsor or other systems.</t>
@@ -373,6 +373,13 @@
     <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
+    <t>Slicing pour les différents identifiants de l'essai clinique</t>
+  </si>
+  <si>
     <t>No BRIDG mapping (although there is  DocumentVersion.identifier &gt; StudyProtocolDocumentVersion, this is arguably a different semantic)</t>
   </si>
   <si>
@@ -388,14 +395,281 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>ResearchStudy.title</t>
+    <t>ResearchStudy.identifier:idPrimaire</t>
+  </si>
+  <si>
+    <t>idPrimaire</t>
+  </si>
+  <si>
+    <t>Identifiant primaire de l'essai clinique / Primary Registry and Trial Identifying Number</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Name for this study</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.use</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire</t>
+  </si>
+  <si>
+    <t>idSecondaire</t>
+  </si>
+  <si>
+    <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.use</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.title</t>
+  </si>
+  <si>
+    <t>Nom de l'étude / Public Title</t>
   </si>
   <si>
     <t>A short, descriptive user-friendly label for the study.</t>
@@ -426,10 +700,6 @@
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>StudyProtocolDocumentVersionPublicTitle.name</t>
   </si>
   <si>
@@ -468,15 +738,12 @@
     <t>ResearchStudy.status</t>
   </si>
   <si>
-    <t>active | administratively-completed | approved | closed-to-accrual | closed-to-accrual-and-intervention | completed | disapproved | in-review | temporarily-closed-to-accrual | temporarily-closed-to-accrual-and-intervention | withdrawn</t>
+    <t>Statut du recrutement / Recruitment Status</t>
   </si>
   <si>
     <t>The current state of the study.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Codes that convey the current status of the research study.</t>
   </si>
   <si>
@@ -495,10 +762,6 @@
     <t>ResearchStudy.primaryPurposeType</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
   </si>
   <si>
@@ -508,9 +771,6 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes for the main intent of the study.</t>
   </si>
   <si>
@@ -592,7 +852,7 @@
     <t>ResearchStudy.condition</t>
   </si>
   <si>
-    <t>Condition being studied</t>
+    <t>Sujet concerné /  Problem(s) Studied</t>
   </si>
   <si>
     <t>The condition that is the focus of the study.  For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion "healthy volunteer", but the target condition code would be a Lupus SNOMED code.</t>
@@ -694,7 +954,7 @@
 </t>
   </si>
   <si>
-    <t>What this is study doing</t>
+    <t>Résumé de l'essai / Summary Results</t>
   </si>
   <si>
     <t>A full description of how the study is being conducted.</t>
@@ -720,7 +980,7 @@
 </t>
   </si>
   <si>
-    <t>Inclusion &amp; exclusion criteria</t>
+    <t>Critères d'inclusion et d'exclusion / Inclusion &amp; exclusion criteria</t>
   </si>
   <si>
     <t>Reference to a Group that defines the criteria for and quantity of subjects participating in the study.  E.g. " 200 female Europeans between the ages of 20 and 45 with early onset diabetes".</t>
@@ -748,24 +1008,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>When the study began and ended</t>
   </si>
   <si>
     <t>Identifies the start date and the expected (or actual, depending on status) end date for the study.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>ProjectConduct.dateRange; StudyProtocolVersion.plannedDuration</t>
   </si>
   <si>
@@ -784,11 +1032,7 @@
     <t>ResearchStudy.sponsor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that initiates and is legally responsible for the study</t>
+    <t>promoteur / primary Sponsor</t>
   </si>
   <si>
     <t>An organization that initiates the investigation and is legally responsible for the study.</t>
@@ -918,22 +1162,7 @@
     <t>ResearchStudy.arm.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>ResearchStudy.arm.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ResearchStudy.arm.modifierExtension</t>
@@ -1341,7 +1570,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1350,8 +1579,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.0234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.78515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -1366,7 +1596,7 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -1374,19 +1604,18 @@
     <col min="25" max="25" width="124.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="54.97265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="52.18359375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="207.0625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="97.8125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="181.859375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
@@ -2457,10 +2686,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>37</v>
@@ -2519,16 +2748,16 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>108</v>
@@ -2546,29 +2775,31 @@
         <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>37</v>
       </c>
@@ -2589,18 +2820,18 @@
         <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>37</v>
       </c>
@@ -2648,13 +2879,13 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>58</v>
@@ -2663,27 +2894,27 @@
         <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2694,7 +2925,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
@@ -2703,20 +2934,18 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>129</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>37</v>
@@ -2765,31 +2994,31 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>37</v>
@@ -2797,14 +3026,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2820,23 +3049,21 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>37</v>
       </c>
@@ -2872,19 +3099,19 @@
         <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -2896,16 +3123,16 @@
         <v>58</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>37</v>
@@ -2916,10 +3143,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2945,15 +3172,17 @@
         <v>69</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
       </c>
@@ -2962,7 +3191,7 @@
         <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>37</v>
@@ -2977,13 +3206,13 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
@@ -3001,10 +3230,10 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>46</v>
@@ -3016,27 +3245,27 @@
         <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3059,18 +3288,20 @@
         <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
       </c>
@@ -3094,13 +3325,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -3118,7 +3349,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3133,13 +3364,13 @@
         <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -3150,10 +3381,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3176,18 +3407,20 @@
         <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
       </c>
@@ -3199,7 +3432,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -3211,13 +3444,13 @@
         <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>37</v>
@@ -3235,7 +3468,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3250,16 +3483,16 @@
         <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>37</v>
@@ -3267,10 +3500,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3281,7 +3514,7 @@
         <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -3293,16 +3526,16 @@
         <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3316,7 +3549,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -3328,37 +3561,37 @@
         <v>37</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>58</v>
@@ -3367,16 +3600,16 @@
         <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>37</v>
@@ -3387,7 +3620,7 @@
         <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3398,7 +3631,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3410,16 +3643,16 @@
         <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3445,10 +3678,10 @@
         <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>37</v>
@@ -3469,42 +3702,42 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>182</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3515,7 +3748,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -3527,16 +3760,16 @@
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3562,13 +3795,13 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>37</v>
@@ -3586,44 +3819,46 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>182</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>37</v>
       </c>
@@ -3644,16 +3879,18 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
       </c>
@@ -3701,7 +3938,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -3716,27 +3953,27 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3747,7 +3984,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>37</v>
@@ -3759,17 +3996,15 @@
         <v>37</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -3818,22 +4053,22 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>37</v>
@@ -3842,7 +4077,7 @@
         <v>67</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>37</v>
@@ -3850,14 +4085,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3873,19 +4108,19 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3911,10 +4146,10 @@
         <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>37</v>
@@ -3923,19 +4158,19 @@
         <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -3947,19 +4182,19 @@
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>37</v>
@@ -3967,10 +4202,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3978,33 +4213,35 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
       </c>
@@ -4013,7 +4250,7 @@
         <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>37</v>
@@ -4028,13 +4265,13 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
@@ -4052,13 +4289,13 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>58</v>
@@ -4067,13 +4304,13 @@
         <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4084,10 +4321,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4107,21 +4344,23 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
       </c>
@@ -4145,13 +4384,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4169,7 +4408,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4184,16 +4423,16 @@
         <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>37</v>
@@ -4201,21 +4440,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -4227,18 +4466,20 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4250,7 +4491,7 @@
         <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>37</v>
@@ -4286,46 +4527,46 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>231</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4344,16 +4585,16 @@
         <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4367,7 +4608,7 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>37</v>
@@ -4403,7 +4644,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4415,30 +4656,30 @@
         <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>243</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4461,16 +4702,16 @@
         <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4520,7 +4761,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -4532,30 +4773,30 @@
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>251</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4578,16 +4819,16 @@
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4637,7 +4878,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -4649,30 +4890,30 @@
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>251</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4683,7 +4924,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -4695,16 +4936,16 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4754,42 +4995,42 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>265</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4800,7 +5041,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -4812,16 +5053,16 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4847,13 +5088,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -4871,46 +5112,46 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>273</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4926,21 +5167,23 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
       </c>
@@ -4988,7 +5231,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5000,16 +5243,16 @@
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5020,10 +5263,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5031,30 +5274,32 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -5079,13 +5324,13 @@
         <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>37</v>
@@ -5103,13 +5348,13 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>58</v>
@@ -5118,27 +5363,27 @@
         <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>37</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5158,18 +5403,20 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -5194,13 +5441,13 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
@@ -5218,7 +5465,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5227,19 +5474,19 @@
         <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5250,21 +5497,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5273,19 +5520,19 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>95</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5311,55 +5558,55 @@
         <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -5367,14 +5614,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5387,26 +5634,24 @@
         <v>37</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>37</v>
       </c>
@@ -5430,10 +5675,10 @@
         <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>37</v>
@@ -5454,7 +5699,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -5466,19 +5711,19 @@
         <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -5486,10 +5731,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5497,10 +5742,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -5509,19 +5754,19 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5547,10 +5792,10 @@
         <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>37</v>
@@ -5571,13 +5816,13 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>58</v>
@@ -5586,27 +5831,27 @@
         <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>37</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5617,7 +5862,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
@@ -5626,19 +5871,19 @@
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5664,13 +5909,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -5688,13 +5933,13 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>58</v>
@@ -5703,27 +5948,27 @@
         <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>37</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5734,7 +5979,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>37</v>
@@ -5743,20 +5988,18 @@
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -5805,13 +6048,13 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>58</v>
@@ -5820,7 +6063,7 @@
         <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>37</v>
@@ -5829,7 +6072,7 @@
         <v>67</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
@@ -5837,10 +6080,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5866,12 +6109,14 @@
         <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>37</v>
@@ -5920,7 +6165,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -5935,7 +6180,7 @@
         <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>37</v>
@@ -5944,7 +6189,7 @@
         <v>67</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -5952,10 +6197,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5966,7 +6211,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -5975,18 +6220,20 @@
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>37</v>
@@ -6011,10 +6258,10 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>37</v>
@@ -6035,31 +6282,31 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6067,14 +6314,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6090,19 +6337,19 @@
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6128,31 +6375,31 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6164,16 +6411,16 @@
         <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
@@ -6184,46 +6431,44 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>37</v>
       </c>
@@ -6271,31 +6516,31 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>37</v>
@@ -6303,21 +6548,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -6326,19 +6571,19 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>119</v>
+        <v>309</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6388,46 +6633,46 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>67</v>
+        <v>314</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>37</v>
+        <v>315</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>37</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6443,19 +6688,19 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6481,13 +6726,13 @@
         <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>328</v>
+        <v>37</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>37</v>
@@ -6505,7 +6750,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -6517,21 +6762,2123 @@
         <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO44" t="s" s="2">
+      <c r="AK48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T12:07:45+00:00</t>
+    <t>2023-07-05T10:10:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,6 +344,86 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-review-date</t>
+  </si>
+  <si>
+    <t>eclaire-review-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-review-date}
+</t>
+  </si>
+  <si>
+    <t>Date de dernière modification substancielle</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout d'une date de révision fonctionnelle lorque que l'on souhaite indiquer la date de la dernière modification substancielle</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-condition-details</t>
+  </si>
+  <si>
+    <t>eclaire-condition-details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-condition-details}
+</t>
+  </si>
+  <si>
+    <t>Précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de précisions sur le sujet concerné par l'essai</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-therapeutic-area</t>
+  </si>
+  <si>
+    <t>eclaire-therapeutic-area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-therapeutic-area}
+</t>
+  </si>
+  <si>
+    <t>Domaine thérapeutique concerné</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout du domaine thérapeutique concerné par l'essai</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-recruitment-period</t>
+  </si>
+  <si>
+    <t>eclaire-recruitment-period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-period}
+</t>
+  </si>
+  <si>
+    <t>Période prévisionnelle de recrutement</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de la période prévisionnelle de recrutement l'essai</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-secondary-sponsor</t>
+  </si>
+  <si>
+    <t>eclaire-secondary-sponsor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-secondary-sponsor}
+</t>
+  </si>
+  <si>
+    <t>Promoteur(s) secondaire(s) / Secondary Sponsor(s)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
+  </si>
+  <si>
     <t>ResearchStudy.modifierExtension</t>
   </si>
   <si>
@@ -395,16 +478,16 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire</t>
-  </si>
-  <si>
-    <t>idPrimaire</t>
+    <t>ResearchStudy.identifier:idPrimary</t>
+  </si>
+  <si>
+    <t>idPrimary</t>
   </si>
   <si>
     <t>Identifiant primaire de l'essai clinique / Primary Registry and Trial Identifying Number</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.id</t>
+    <t>ResearchStudy.identifier:idPrimary.id</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.id</t>
@@ -423,7 +506,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.extension</t>
+    <t>ResearchStudy.identifier:idPrimary.extension</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.extension</t>
@@ -435,7 +518,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.use</t>
+    <t>ResearchStudy.identifier:idPrimary.use</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.use</t>
@@ -471,7 +554,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.type</t>
+    <t>ResearchStudy.identifier:idPrimary.type</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.type</t>
@@ -508,7 +591,7 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.system</t>
+    <t>ResearchStudy.identifier:idPrimary.system</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.system</t>
@@ -538,7 +621,7 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.value</t>
+    <t>ResearchStudy.identifier:idPrimary.value</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.value</t>
@@ -565,7 +648,7 @@
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.period</t>
+    <t>ResearchStudy.identifier:idPrimary.period</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.period</t>
@@ -598,7 +681,7 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idPrimaire.assigner</t>
+    <t>ResearchStudy.identifier:idPrimary.assigner</t>
   </si>
   <si>
     <t>ResearchStudy.identifier.assigner</t>
@@ -630,40 +713,40 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idSecondaire</t>
-  </si>
-  <si>
-    <t>idSecondaire</t>
+    <t>ResearchStudy.identifier:idSecondary</t>
+  </si>
+  <si>
+    <t>idSecondary</t>
   </si>
   <si>
     <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idSecondaire.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.use</t>
+    <t>ResearchStudy.identifier:idSecondary.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.use</t>
   </si>
   <si>
     <t>secondary</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idSecondaire.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.value</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.period</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondaire.assigner</t>
+    <t>ResearchStudy.identifier:idSecondary.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.assigner</t>
   </si>
   <si>
     <t>ResearchStudy.title</t>
@@ -789,7 +872,7 @@
     <t>ResearchStudy.phase</t>
   </si>
   <si>
-    <t>n-a | early-phase-1 | phase-1 | phase-1-phase-2 | phase-2 | phase-2-phase-3 | phase-3 | phase-4</t>
+    <t>Phase de l'essai / Study type : phase</t>
   </si>
   <si>
     <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
@@ -813,7 +896,7 @@
     <t>ResearchStudy.category</t>
   </si>
   <si>
-    <t>Classifications for the study</t>
+    <t>Type d'essai  / Study type : type of study</t>
   </si>
   <si>
     <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
@@ -852,7 +935,7 @@
     <t>ResearchStudy.condition</t>
   </si>
   <si>
-    <t>Sujet concerné /  Problem(s) Studied</t>
+    <t>Sujet concerné /  Problem(s) Studied exemple code MedDRA</t>
   </si>
   <si>
     <t>The condition that is the focus of the study.  For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion "healthy volunteer", but the target condition code would be a Lupus SNOMED code.</t>
@@ -877,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t>Contact details for the study</t>
+    <t>Contact (Contact for public / scientific queries)</t>
   </si>
   <si>
     <t>Contact details to assist a user in learning more about or engaging with the study.</t>
@@ -887,6 +970,69 @@
   </si>
   <si>
     <t>Central Contact; Central Contact Backup; Overall Study Officials; Facility Contact &amp; Backup (if Study tied to only one location); Investigators</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-type</t>
+  </si>
+  <si>
+    <t>eclaire-contact-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-type}
+</t>
+  </si>
+  <si>
+    <t>type de contact : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.name</t>
+  </si>
+  <si>
+    <t>Name of an individual to contact</t>
+  </si>
+  <si>
+    <t>The name of an individual to contact.</t>
+  </si>
+  <si>
+    <t>If there is no named individual, the telecom information is for the organization as a whole.</t>
+  </si>
+  <si>
+    <t>ContactDetail.name</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contact details for individual or organization</t>
+  </si>
+  <si>
+    <t>The contact details for the individual (if a name was provided) or the organization.</t>
+  </si>
+  <si>
+    <t>ContactDetail.telecom</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
   </si>
   <si>
     <t>ResearchStudy.relatedArtifact</t>
@@ -1079,7 +1225,7 @@
 </t>
   </si>
   <si>
-    <t>Facility where study activities are conducted</t>
+    <t>Lieux / Countries of Recruitment</t>
   </si>
   <si>
     <t>A facility in which study activities are conducted.</t>
@@ -1404,6 +1550,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1570,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO62"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1579,16 +1740,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.78515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1737,7 +1898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>45</v>
       </c>
@@ -1750,7 +1911,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>46</v>
@@ -1854,7 +2015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>53</v>
       </c>
@@ -1867,7 +2028,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>46</v>
@@ -1969,7 +2130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>61</v>
       </c>
@@ -2086,7 +2247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>68</v>
       </c>
@@ -2203,7 +2364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>77</v>
       </c>
@@ -2320,7 +2481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>85</v>
       </c>
@@ -2437,7 +2598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>92</v>
       </c>
@@ -2554,48 +2715,46 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>37</v>
       </c>
@@ -2631,19 +2790,19 @@
         <v>37</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -2664,7 +2823,7 @@
         <v>37</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>37</v>
@@ -2673,14 +2832,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>37</v>
       </c>
@@ -2689,7 +2850,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>37</v>
@@ -2698,21 +2859,19 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>37</v>
       </c>
@@ -2748,19 +2907,19 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -2772,33 +2931,33 @@
         <v>58</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>37</v>
@@ -2817,21 +2976,19 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>37</v>
       </c>
@@ -2879,7 +3036,7 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
@@ -2891,32 +3048,34 @@
         <v>58</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AN11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="B12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>37</v>
       </c>
@@ -2937,13 +3096,13 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2994,19 +3153,19 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -3015,7 +3174,7 @@
         <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>37</v>
@@ -3024,16 +3183,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3052,17 +3213,15 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>37</v>
@@ -3099,19 +3258,19 @@
         <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -3132,7 +3291,7 @@
         <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>37</v>
@@ -3141,23 +3300,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -3166,22 +3325,22 @@
         <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -3191,7 +3350,7 @@
         <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>37</v>
@@ -3206,53 +3365,53 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AM14" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
       </c>
@@ -3260,12 +3419,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3276,7 +3435,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
@@ -3288,19 +3447,17 @@
         <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3325,37 +3482,37 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>58</v>
@@ -3364,29 +3521,31 @@
         <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AN15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>37</v>
-      </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>37</v>
       </c>
@@ -3398,7 +3557,7 @@
         <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>37</v>
@@ -3407,19 +3566,17 @@
         <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -3432,7 +3589,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -3468,13 +3625,13 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>58</v>
@@ -3483,27 +3640,27 @@
         <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3523,20 +3680,18 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3549,7 +3704,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -3585,7 +3740,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3594,19 +3749,19 @@
         <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3615,23 +3770,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3640,19 +3795,19 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3690,40 +3845,40 @@
         <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3732,12 +3887,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3745,7 +3900,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>46</v>
@@ -3754,24 +3909,26 @@
         <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
       </c>
@@ -3780,7 +3937,7 @@
         <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>37</v>
@@ -3795,13 +3952,13 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>37</v>
@@ -3819,7 +3976,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -3831,16 +3988,16 @@
         <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -3849,16 +4006,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>37</v>
       </c>
@@ -3867,7 +4022,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
@@ -3879,17 +4034,19 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -3914,13 +4071,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -3938,13 +4095,13 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>58</v>
@@ -3953,27 +4110,27 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3993,19 +4150,23 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
       </c>
@@ -4017,7 +4178,7 @@
         <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>37</v>
@@ -4053,7 +4214,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4062,19 +4223,19 @@
         <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4083,23 +4244,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
@@ -4108,19 +4269,19 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4134,7 +4295,7 @@
         <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>37</v>
@@ -4158,40 +4319,40 @@
         <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4200,12 +4361,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4213,7 +4374,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>46</v>
@@ -4222,26 +4383,24 @@
         <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>37</v>
       </c>
@@ -4250,7 +4409,7 @@
         <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>37</v>
@@ -4265,13 +4424,13 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
@@ -4289,7 +4448,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4301,16 +4460,16 @@
         <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4319,12 +4478,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4347,20 +4506,18 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>37</v>
       </c>
@@ -4384,13 +4541,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4408,7 +4565,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4420,16 +4577,16 @@
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4438,14 +4595,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4454,10 +4613,10 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>37</v>
@@ -4466,19 +4625,17 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -4491,7 +4648,7 @@
         <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>37</v>
@@ -4527,13 +4684,13 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>58</v>
@@ -4542,27 +4699,27 @@
         <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4582,20 +4739,18 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4608,7 +4763,7 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>37</v>
@@ -4644,7 +4799,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4653,19 +4808,19 @@
         <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -4674,23 +4829,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4699,19 +4854,19 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4749,40 +4904,40 @@
         <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -4791,12 +4946,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4804,7 +4959,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>46</v>
@@ -4813,24 +4968,26 @@
         <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>37</v>
       </c>
@@ -4839,7 +4996,7 @@
         <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>37</v>
@@ -4854,13 +5011,13 @@
         <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>37</v>
@@ -4878,7 +5035,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -4890,16 +5047,16 @@
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -4908,12 +5065,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4936,18 +5093,20 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
       </c>
@@ -4971,13 +5130,13 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -4995,7 +5154,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5010,27 +5169,27 @@
         <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5041,7 +5200,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -5053,18 +5212,20 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
       </c>
@@ -5076,7 +5237,7 @@
         <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>37</v>
@@ -5112,53 +5273,53 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -5170,20 +5331,18 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>37</v>
       </c>
@@ -5195,7 +5354,7 @@
         <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>37</v>
@@ -5231,28 +5390,28 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5261,12 +5420,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5274,7 +5433,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>46</v>
@@ -5283,22 +5442,22 @@
         <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5324,13 +5483,13 @@
         <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>37</v>
@@ -5348,10 +5507,10 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>46</v>
@@ -5360,30 +5519,30 @@
         <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>237</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5406,16 +5565,16 @@
         <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5441,13 +5600,13 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
@@ -5465,7 +5624,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5477,16 +5636,16 @@
         <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5495,12 +5654,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5523,16 +5682,16 @@
         <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5558,13 +5717,13 @@
         <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>37</v>
@@ -5582,7 +5741,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5597,27 +5756,27 @@
         <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5640,16 +5799,16 @@
         <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5675,10 +5834,10 @@
         <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>37</v>
@@ -5699,7 +5858,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -5711,34 +5870,34 @@
         <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5757,18 +5916,20 @@
         <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>37</v>
       </c>
@@ -5792,10 +5953,10 @@
         <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>37</v>
@@ -5816,7 +5977,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -5828,30 +5989,30 @@
         <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5859,31 +6020,31 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5909,13 +6070,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -5933,13 +6094,13 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>58</v>
@@ -5948,27 +6109,27 @@
         <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5979,7 +6140,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>37</v>
@@ -5991,15 +6152,17 @@
         <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6024,13 +6187,13 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
@@ -6048,13 +6211,13 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>58</v>
@@ -6063,27 +6226,27 @@
         <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6094,7 +6257,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -6103,19 +6266,19 @@
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6141,13 +6304,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6165,13 +6328,13 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>58</v>
@@ -6180,27 +6343,27 @@
         <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6223,16 +6386,16 @@
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6258,10 +6421,10 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>37</v>
@@ -6282,7 +6445,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6297,27 +6460,27 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6340,16 +6503,16 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6375,13 +6538,13 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>37</v>
@@ -6399,7 +6562,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6414,27 +6577,27 @@
         <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6445,7 +6608,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
@@ -6454,19 +6617,19 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6492,13 +6655,13 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>37</v>
@@ -6516,13 +6679,13 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>58</v>
@@ -6531,31 +6694,31 @@
         <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>308</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6574,17 +6737,15 @@
         <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>37</v>
@@ -6633,7 +6794,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6645,34 +6806,34 @@
         <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>314</v>
+        <v>67</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>316</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6688,20 +6849,18 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>151</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -6750,7 +6909,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>317</v>
+        <v>153</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -6759,44 +6918,44 @@
         <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>325</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -6805,19 +6964,19 @@
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
+        <v>95</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>328</v>
+        <v>156</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6855,56 +7014,58 @@
         <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>326</v>
+        <v>157</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>332</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>37</v>
       </c>
@@ -6922,20 +7083,18 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -6984,42 +7143,42 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>332</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7030,7 +7189,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7042,16 +7201,16 @@
         <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>150</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7101,42 +7260,42 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>338</v>
+        <v>67</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>345</v>
+        <v>37</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>346</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7147,7 +7306,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -7159,17 +7318,15 @@
         <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7194,13 +7351,13 @@
         <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>350</v>
+        <v>37</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>37</v>
@@ -7218,42 +7375,42 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>323</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>352</v>
+        <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>354</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7276,16 +7433,16 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7335,7 +7492,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7350,27 +7507,27 @@
         <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>361</v>
+        <v>67</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7390,18 +7547,20 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7426,10 +7585,10 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>37</v>
+        <v>336</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>37</v>
@@ -7450,7 +7609,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7465,27 +7624,27 @@
         <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7496,7 +7655,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7505,18 +7664,20 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>126</v>
+        <v>340</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -7541,13 +7702,13 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
@@ -7565,28 +7726,28 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>128</v>
+        <v>339</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -7595,23 +7756,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -7623,16 +7784,16 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>95</v>
+        <v>347</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>97</v>
+        <v>349</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7670,58 +7831,58 @@
         <v>37</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>132</v>
+        <v>345</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7734,26 +7895,24 @@
         <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
       </c>
@@ -7801,7 +7960,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -7813,38 +7972,38 @@
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>37</v>
+        <v>358</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>37</v>
+        <v>360</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>37</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>46</v>
@@ -7856,19 +8015,19 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7918,10 +8077,10 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>46</v>
@@ -7930,30 +8089,30 @@
         <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>67</v>
+        <v>368</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>37</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7973,19 +8132,19 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8035,7 +8194,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8047,30 +8206,30 @@
         <v>58</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>37</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8090,19 +8249,19 @@
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>125</v>
+        <v>379</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8152,7 +8311,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8164,30 +8323,30 @@
         <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>67</v>
+        <v>383</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>37</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8207,18 +8366,20 @@
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8267,7 +8428,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8279,30 +8440,30 @@
         <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>67</v>
+        <v>383</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>37</v>
+        <v>391</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8322,18 +8483,20 @@
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>126</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>37</v>
@@ -8358,13 +8521,13 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>37</v>
+        <v>395</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>37</v>
+        <v>396</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -8382,7 +8545,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>128</v>
+        <v>392</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8391,37 +8554,37 @@
         <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>37</v>
+        <v>397</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>37</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8440,16 +8603,16 @@
         <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>94</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>95</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>97</v>
+        <v>404</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8487,19 +8650,19 @@
         <v>37</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>132</v>
+        <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8511,16 +8674,16 @@
         <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>60</v>
+        <v>406</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -8529,16 +8692,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8551,26 +8714,22 @@
         <v>37</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>94</v>
+        <v>408</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
       </c>
@@ -8618,7 +8777,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8630,30 +8789,30 @@
         <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>37</v>
+        <v>411</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>37</v>
+        <v>412</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8676,17 +8835,15 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>398</v>
+        <v>151</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -8735,7 +8892,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>397</v>
+        <v>153</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8744,13 +8901,13 @@
         <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
@@ -8765,23 +8922,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>37</v>
@@ -8793,16 +8950,16 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
+        <v>95</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>403</v>
+        <v>156</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8828,61 +8985,1249 @@
         <v>37</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>404</v>
+        <v>37</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>405</v>
+        <v>37</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>401</v>
+        <v>157</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO62" t="s" s="2">
+      <c r="AK64" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO72">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI71">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T10:10:38+00:00</t>
+    <t>2023-07-10T12:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,7 +821,7 @@
     <t>ResearchStudy.status</t>
   </si>
   <si>
-    <t>Statut du recrutement / Recruitment Status</t>
+    <t>Statut de l'essai / Study Status</t>
   </si>
   <si>
     <t>The current state of the study.</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T12:01:19+00:00</t>
+    <t>2023-07-12T08:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:58:08+00:00</t>
+    <t>2023-07-13T07:04:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T07:04:15+00:00</t>
+    <t>2023-07-21T09:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T09:40:10+00:00</t>
+    <t>2023-07-21T12:39:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T12:39:50+00:00</t>
+    <t>2023-07-26T16:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -424,6 +424,22 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-label</t>
+  </si>
+  <si>
+    <t>eclaire-label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-label}
+</t>
+  </si>
+  <si>
+    <t>autres titres et acronyme / Additional names for the study</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de plusieurs titres pour l'essai</t>
+  </si>
+  <si>
     <t>ResearchStudy.modifierExtension</t>
   </si>
   <si>
@@ -536,7 +552,7 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>usual</t>
+    <t>official</t>
   </si>
   <si>
     <t>required</t>
@@ -752,7 +768,7 @@
     <t>ResearchStudy.title</t>
   </si>
   <si>
-    <t>Nom de l'étude / Public Title</t>
+    <t>Nom scientifique de l'étude / Scientific Title</t>
   </si>
   <si>
     <t>A short, descriptive user-friendly label for the study.</t>
@@ -1731,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO72"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3305,11 +3321,13 @@
         <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3322,26 +3340,22 @@
         <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>37</v>
       </c>
@@ -3377,19 +3391,19 @@
         <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -3410,7 +3424,7 @@
         <v>37</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3428,7 +3442,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3441,23 +3455,25 @@
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3494,10 +3510,10 @@
         <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>37</v>
@@ -3506,7 +3522,7 @@
         <v>100</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3518,34 +3534,32 @@
         <v>58</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>144</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>37</v>
       </c>
@@ -3554,10 +3568,10 @@
         <v>35</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>37</v>
@@ -3566,17 +3580,17 @@
         <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -3613,19 +3627,19 @@
         <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3640,29 +3654,31 @@
         <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>37</v>
       </c>
@@ -3674,25 +3690,27 @@
         <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
       </c>
@@ -3740,53 +3758,53 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>37</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3798,17 +3816,15 @@
         <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>37</v>
@@ -3845,31 +3861,31 @@
         <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
@@ -3878,7 +3894,7 @@
         <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3889,46 +3905,44 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>161</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>37</v>
       </c>
@@ -3937,7 +3951,7 @@
         <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>37</v>
@@ -3952,52 +3966,52 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4008,10 +4022,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4019,7 +4033,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>46</v>
@@ -4028,25 +4042,25 @@
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4056,7 +4070,7 @@
         <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>37</v>
@@ -4071,13 +4085,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -4095,7 +4109,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4113,10 +4127,10 @@
         <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4127,10 +4141,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4153,19 +4167,19 @@
         <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4178,7 +4192,7 @@
         <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>37</v>
@@ -4190,13 +4204,13 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4214,7 +4228,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4232,10 +4246,10 @@
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4246,10 +4260,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4272,18 +4286,20 @@
         <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>37</v>
       </c>
@@ -4295,7 +4311,7 @@
         <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>37</v>
@@ -4331,7 +4347,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4349,10 +4365,10 @@
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4363,10 +4379,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4389,16 +4405,16 @@
         <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4412,7 +4428,7 @@
         <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>37</v>
@@ -4448,7 +4464,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4460,16 +4476,16 @@
         <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4480,10 +4496,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4506,16 +4522,16 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4565,7 +4581,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4577,16 +4593,16 @@
         <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4597,14 +4613,12 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4613,10 +4627,10 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>37</v>
@@ -4625,18 +4639,18 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4684,44 +4698,46 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>144</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>37</v>
       </c>
@@ -4730,28 +4746,30 @@
         <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
       </c>
@@ -4799,53 +4817,53 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>37</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4857,17 +4875,15 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>37</v>
@@ -4904,31 +4920,31 @@
         <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
@@ -4937,7 +4953,7 @@
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -4948,46 +4964,44 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>161</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>37</v>
       </c>
@@ -4996,7 +5010,7 @@
         <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>37</v>
@@ -5011,52 +5025,52 @@
         <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5067,10 +5081,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5078,7 +5092,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>46</v>
@@ -5087,25 +5101,25 @@
         <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -5115,7 +5129,7 @@
         <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>37</v>
@@ -5130,13 +5144,13 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5154,7 +5168,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5172,10 +5186,10 @@
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5186,10 +5200,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5212,19 +5226,19 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5237,7 +5251,7 @@
         <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>37</v>
@@ -5249,13 +5263,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5273,7 +5287,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5291,10 +5305,10 @@
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -5305,10 +5319,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5331,18 +5345,20 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
       </c>
@@ -5354,7 +5370,7 @@
         <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>37</v>
@@ -5390,7 +5406,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5408,10 +5424,10 @@
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5422,10 +5438,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5448,16 +5464,16 @@
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5471,7 +5487,7 @@
         <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>37</v>
@@ -5507,7 +5523,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5519,16 +5535,16 @@
         <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -5539,10 +5555,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5565,16 +5581,16 @@
         <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5624,7 +5640,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5636,16 +5652,16 @@
         <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5656,10 +5672,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5682,16 +5698,16 @@
         <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5741,7 +5757,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5753,19 +5769,19 @@
         <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -5773,10 +5789,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5787,7 +5803,7 @@
         <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -5799,16 +5815,16 @@
         <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5858,31 +5874,31 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -5890,14 +5906,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5916,20 +5932,18 @@
         <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>37</v>
       </c>
@@ -5977,7 +5991,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -5989,19 +6003,19 @@
         <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>37</v>
@@ -6009,44 +6023,46 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>37</v>
       </c>
@@ -6070,13 +6086,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -6094,42 +6110,42 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>262</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6137,7 +6153,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>46</v>
@@ -6146,22 +6162,22 @@
         <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6187,13 +6203,13 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
@@ -6211,10 +6227,10 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>46</v>
@@ -6226,27 +6242,27 @@
         <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>37</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6269,16 +6285,16 @@
         <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6304,13 +6320,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6328,7 +6344,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6343,16 +6359,16 @@
         <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6360,10 +6376,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6374,7 +6390,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -6386,16 +6402,16 @@
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6421,13 +6437,13 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6445,13 +6461,13 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>58</v>
@@ -6460,16 +6476,16 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6477,10 +6493,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6503,16 +6519,16 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="N41" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6538,10 +6554,10 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>37</v>
@@ -6562,7 +6578,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6577,27 +6593,27 @@
         <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AO41" t="s" s="2">
-        <v>292</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6620,16 +6636,16 @@
         <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6655,13 +6671,13 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>37</v>
@@ -6679,7 +6695,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6694,27 +6710,27 @@
         <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6737,15 +6753,17 @@
         <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>37</v>
@@ -6770,13 +6788,13 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>37</v>
@@ -6794,7 +6812,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6809,27 +6827,27 @@
         <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AO43" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6840,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -6849,16 +6867,16 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>150</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>152</v>
+        <v>308</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6909,22 +6927,22 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
@@ -6933,7 +6951,7 @@
         <v>67</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>37</v>
@@ -6941,21 +6959,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -6967,17 +6985,15 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -7014,31 +7030,31 @@
         <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -7047,7 +7063,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7058,23 +7074,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -7086,15 +7100,17 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>310</v>
+        <v>94</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7131,19 +7147,19 @@
         <v>37</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7164,7 +7180,7 @@
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7178,9 +7194,11 @@
         <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>37</v>
       </c>
@@ -7198,20 +7216,18 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7260,19 +7276,19 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
@@ -7281,7 +7297,7 @@
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -7306,7 +7322,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -7318,15 +7334,17 @@
         <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7381,22 +7399,22 @@
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>323</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>325</v>
+        <v>67</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -7407,10 +7425,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7430,20 +7448,18 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>37</v>
@@ -7492,7 +7508,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7504,19 +7520,19 @@
         <v>58</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>328</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>332</v>
+        <v>37</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>37</v>
@@ -7524,10 +7540,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7547,19 +7563,19 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7585,10 +7601,10 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>37</v>
@@ -7609,7 +7625,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7624,16 +7640,16 @@
         <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -7641,10 +7657,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7667,16 +7683,16 @@
         <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7702,13 +7718,13 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>343</v>
+        <v>37</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
@@ -7726,7 +7742,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7741,16 +7757,16 @@
         <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -7758,10 +7774,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7772,7 +7788,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -7781,19 +7797,19 @@
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7819,13 +7835,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -7843,13 +7859,13 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>58</v>
@@ -7858,16 +7874,16 @@
         <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>37</v>
@@ -7875,21 +7891,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
@@ -7898,19 +7914,19 @@
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7960,53 +7976,53 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>359</v>
+        <v>67</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>361</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8018,16 +8034,16 @@
         <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>203</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>206</v>
+        <v>362</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8077,46 +8093,46 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>37</v>
+        <v>368</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8135,16 +8151,16 @@
         <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8194,7 +8210,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8206,30 +8222,30 @@
         <v>58</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8252,16 +8268,16 @@
         <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>379</v>
+        <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8311,7 +8327,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8323,30 +8339,30 @@
         <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8357,7 +8373,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>37</v>
@@ -8369,16 +8385,16 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="N57" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8428,42 +8444,42 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AO57" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8474,7 +8490,7 @@
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -8486,16 +8502,16 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>172</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8521,13 +8537,13 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -8545,42 +8561,42 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>271</v>
+        <v>388</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8591,7 +8607,7 @@
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8600,19 +8616,19 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>401</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>404</v>
+        <v>271</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8638,13 +8654,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>37</v>
+        <v>400</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -8662,13 +8678,13 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>58</v>
@@ -8677,27 +8693,27 @@
         <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>406</v>
+        <v>276</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>37</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8720,15 +8736,17 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -8777,7 +8795,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8792,16 +8810,16 @@
         <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="AN60" t="s" s="2">
-        <v>412</v>
+        <v>37</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>37</v>
@@ -8809,10 +8827,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8823,7 +8841,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -8835,13 +8853,13 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>150</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>152</v>
+        <v>415</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8892,22 +8910,22 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>153</v>
+        <v>412</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
@@ -8916,7 +8934,7 @@
         <v>67</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>37</v>
+        <v>417</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -8924,21 +8942,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>37</v>
@@ -8950,17 +8968,15 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -8997,31 +9013,31 @@
         <v>37</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>37</v>
@@ -9030,7 +9046,7 @@
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
@@ -9041,14 +9057,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>416</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9061,26 +9077,24 @@
         <v>37</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>417</v>
+        <v>95</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="O63" t="s" s="2">
-        <v>131</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>37</v>
       </c>
@@ -9116,19 +9130,19 @@
         <v>37</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>419</v>
+        <v>162</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9167,37 +9181,39 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>37</v>
       </c>
@@ -9245,31 +9261,31 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>424</v>
+        <v>37</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>37</v>
@@ -9288,7 +9304,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>46</v>
@@ -9303,7 +9319,7 @@
         <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>426</v>
@@ -9312,7 +9328,7 @@
         <v>427</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9365,7 +9381,7 @@
         <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>46</v>
@@ -9380,10 +9396,10 @@
         <v>428</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>271</v>
+        <v>67</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>429</v>
@@ -9420,7 +9436,7 @@
         <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>431</v>
@@ -9429,7 +9445,7 @@
         <v>432</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9497,10 +9513,10 @@
         <v>433</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>434</v>
@@ -9525,7 +9541,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -9537,7 +9553,7 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>408</v>
+        <v>155</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>436</v>
@@ -9545,7 +9561,9 @@
       <c r="M67" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>37</v>
@@ -9600,7 +9618,7 @@
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>58</v>
@@ -9618,7 +9636,7 @@
         <v>67</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>37</v>
+        <v>439</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -9626,10 +9644,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9640,7 +9658,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>37</v>
@@ -9652,13 +9670,13 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>150</v>
+        <v>413</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>151</v>
+        <v>441</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9709,22 +9727,22 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>153</v>
+        <v>440</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>37</v>
+        <v>443</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
@@ -9741,21 +9759,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -9767,17 +9785,15 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>37</v>
@@ -9814,31 +9830,31 @@
         <v>37</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>37</v>
@@ -9847,7 +9863,7 @@
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -9858,14 +9874,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>416</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9878,26 +9894,24 @@
         <v>37</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>417</v>
+        <v>95</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="O70" t="s" s="2">
-        <v>131</v>
-      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>37</v>
       </c>
@@ -9933,19 +9947,19 @@
         <v>37</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>419</v>
+        <v>162</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -9977,44 +9991,46 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>37</v>
       </c>
@@ -10062,28 +10078,28 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>445</v>
+        <v>37</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -10094,10 +10110,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10120,16 +10136,16 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10155,13 +10171,13 @@
         <v>37</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>449</v>
+        <v>37</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>37</v>
@@ -10179,7 +10195,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10194,23 +10210,140 @@
         <v>59</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM72" t="s" s="2">
+      <c r="B73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AN72" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO72" t="s" s="2">
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO72">
+  <autoFilter ref="A1:AO73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10220,7 +10353,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T16:31:52+00:00</t>
+    <t>2023-07-27T08:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T08:05:38+00:00</t>
+    <t>2023-07-27T08:46:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1094,7 +1094,7 @@
     <t>ResearchStudy.location</t>
   </si>
   <si>
-    <t>Geographic region(s) for study</t>
+    <t>Pays de recrutement / Countries of Recruitment</t>
   </si>
   <si>
     <t>Indicates a country, state or other region where the study is taking place.</t>
@@ -1194,7 +1194,7 @@
     <t>ResearchStudy.sponsor</t>
   </si>
   <si>
-    <t>promoteur / primary Sponsor</t>
+    <t>Promoteur / primary Sponsor</t>
   </si>
   <si>
     <t>An organization that initiates the investigation and is legally responsible for the study.</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T08:46:09+00:00</t>
+    <t>2023-07-27T08:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T08:48:31+00:00</t>
+    <t>2023-07-27T13:16:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:16:51+00:00</t>
+    <t>2023-07-27T15:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T15:15:25+00:00</t>
+    <t>2023-07-28T08:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour le projet ECLAIRE</t>
+    <t>Profil de ResearchStudy pour le projet ECLAIRE</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -2752,7 +2752,7 @@
         <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>37</v>
@@ -2869,7 +2869,7 @@
         <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>37</v>
@@ -2986,7 +2986,7 @@
         <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>37</v>
@@ -3103,7 +3103,7 @@
         <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>37</v>
@@ -3220,7 +3220,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>37</v>
@@ -3337,7 +3337,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>37</v>
@@ -5806,7 +5806,7 @@
         <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>37</v>
@@ -6159,7 +6159,7 @@
         <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>47</v>
@@ -6393,7 +6393,7 @@
         <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>37</v>
@@ -6510,7 +6510,7 @@
         <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
@@ -6744,7 +6744,7 @@
         <v>36</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>36</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>37</v>
@@ -7210,7 +7210,7 @@
         <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>37</v>
@@ -7791,7 +7791,7 @@
         <v>36</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
@@ -7908,7 +7908,7 @@
         <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -8025,7 +8025,7 @@
         <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>37</v>
@@ -8259,7 +8259,7 @@
         <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
@@ -8493,7 +8493,7 @@
         <v>36</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>37</v>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T08:09:21+00:00</t>
+    <t>2023-07-28T15:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -894,28 +894,25 @@
     <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
   </si>
   <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-phase-vs</t>
+  </si>
+  <si>
+    <t>StudyProtocolVersion.phaseCode</t>
+  </si>
+  <si>
+    <t>Study Phase</t>
+  </si>
+  <si>
+    <t>ResearchStudy.category</t>
+  </si>
+  <si>
+    <t>Type d'essai  / Study type : type of study</t>
+  </si>
+  <si>
+    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
+  </si>
+  <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes for the stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-phase</t>
-  </si>
-  <si>
-    <t>StudyProtocolVersion.phaseCode</t>
-  </si>
-  <si>
-    <t>Study Phase</t>
-  </si>
-  <si>
-    <t>ResearchStudy.category</t>
-  </si>
-  <si>
-    <t>Type d'essai  / Study type : type of study</t>
-  </si>
-  <si>
-    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
   </si>
   <si>
     <t>Codes that describe the type of research study.  E.g. Study phase, Interventional/Observational, blinding type, etc.</t>
@@ -1778,8 +1775,8 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.97265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.69140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="52.18359375" customWidth="true" bestFit="true"/>
@@ -6437,13 +6434,11 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6476,7 +6471,7 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>275</v>
@@ -6485,7 +6480,7 @@
         <v>276</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6493,10 +6488,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6522,10 +6517,10 @@
         <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>271</v>
@@ -6554,10 +6549,10 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>37</v>
@@ -6578,7 +6573,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6593,7 +6588,7 @@
         <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>275</v>
@@ -6602,7 +6597,7 @@
         <v>276</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>37</v>
@@ -6610,10 +6605,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6639,10 +6634,10 @@
         <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>271</v>
@@ -6671,10 +6666,10 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>37</v>
@@ -6695,7 +6690,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6710,7 +6705,7 @@
         <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>275</v>
@@ -6719,18 +6714,18 @@
         <v>276</v>
       </c>
       <c r="AN42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6756,10 +6751,10 @@
         <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>271</v>
@@ -6788,14 +6783,14 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>37</v>
       </c>
@@ -6812,7 +6807,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6827,7 +6822,7 @@
         <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>275</v>
@@ -6836,18 +6831,18 @@
         <v>276</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6870,13 +6865,13 @@
         <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6927,7 +6922,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -6942,7 +6937,7 @@
         <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
@@ -6951,7 +6946,7 @@
         <v>67</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>37</v>
@@ -6959,10 +6954,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7074,10 +7069,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7191,13 +7186,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>37</v>
@@ -7219,13 +7214,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7308,10 +7303,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7337,13 +7332,13 @@
         <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7393,7 +7388,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7425,10 +7420,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7451,13 +7446,13 @@
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7508,7 +7503,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7520,16 +7515,16 @@
         <v>58</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7540,10 +7535,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7566,16 +7561,16 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7625,7 +7620,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7640,7 +7635,7 @@
         <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>37</v>
@@ -7649,7 +7644,7 @@
         <v>67</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -7657,10 +7652,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7686,10 +7681,10 @@
         <v>177</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>271</v>
@@ -7718,10 +7713,10 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>37</v>
@@ -7742,7 +7737,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7757,7 +7752,7 @@
         <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>275</v>
@@ -7766,7 +7761,7 @@
         <v>276</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -7774,10 +7769,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7803,10 +7798,10 @@
         <v>177</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>271</v>
@@ -7838,11 +7833,11 @@
         <v>182</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
       </c>
@@ -7859,7 +7854,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7874,7 +7869,7 @@
         <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>275</v>
@@ -7891,10 +7886,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7917,16 +7912,16 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7976,7 +7971,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -7991,7 +7986,7 @@
         <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>37</v>
@@ -8000,7 +7995,7 @@
         <v>67</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8008,14 +8003,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8034,16 +8029,16 @@
         <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8093,7 +8088,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8108,31 +8103,31 @@
         <v>223</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8154,10 +8149,10 @@
         <v>208</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>211</v>
@@ -8210,7 +8205,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8225,27 +8220,27 @@
         <v>213</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8271,10 +8266,10 @@
         <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>248</v>
@@ -8327,7 +8322,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8342,27 +8337,27 @@
         <v>223</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8385,13 +8380,13 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>248</v>
@@ -8444,7 +8439,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8459,27 +8454,27 @@
         <v>223</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN57" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AO57" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8502,13 +8497,13 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>248</v>
@@ -8561,7 +8556,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8576,27 +8571,27 @@
         <v>223</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8622,10 +8617,10 @@
         <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>271</v>
@@ -8654,14 +8649,14 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
       </c>
@@ -8678,7 +8673,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8693,7 +8688,7 @@
         <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>275</v>
@@ -8702,18 +8697,18 @@
         <v>276</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8736,16 +8731,16 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8795,7 +8790,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8810,13 +8805,13 @@
         <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -8827,10 +8822,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8853,13 +8848,13 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8910,7 +8905,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8925,7 +8920,7 @@
         <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
@@ -8934,7 +8929,7 @@
         <v>67</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -8942,10 +8937,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9057,10 +9052,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9174,14 +9169,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9203,10 +9198,10 @@
         <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>97</v>
@@ -9261,7 +9256,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9293,10 +9288,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9322,10 +9317,10 @@
         <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>241</v>
@@ -9378,7 +9373,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>46</v>
@@ -9393,7 +9388,7 @@
         <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
@@ -9402,7 +9397,7 @@
         <v>67</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9410,10 +9405,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9439,10 +9434,10 @@
         <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>271</v>
@@ -9495,7 +9490,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9510,7 +9505,7 @@
         <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>275</v>
@@ -9519,7 +9514,7 @@
         <v>276</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>37</v>
@@ -9527,10 +9522,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9556,10 +9551,10 @@
         <v>155</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>241</v>
@@ -9612,7 +9607,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -9627,7 +9622,7 @@
         <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>37</v>
@@ -9636,7 +9631,7 @@
         <v>67</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -9644,10 +9639,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9670,13 +9665,13 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9727,7 +9722,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -9742,7 +9737,7 @@
         <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
@@ -9759,10 +9754,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9874,10 +9869,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9991,14 +9986,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10020,10 +10015,10 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>97</v>
@@ -10078,7 +10073,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10110,10 +10105,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10139,10 +10134,10 @@
         <v>155</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>241</v>
@@ -10195,7 +10190,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10210,7 +10205,7 @@
         <v>59</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
@@ -10227,10 +10222,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10256,10 +10251,10 @@
         <v>177</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>271</v>
@@ -10291,11 +10286,11 @@
         <v>73</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
       </c>
@@ -10312,7 +10307,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10327,7 +10322,7 @@
         <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>275</v>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:52+00:00</t>
+    <t>2023-07-28T15:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:47:29+00:00</t>
+    <t>2023-07-28T15:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:48:20+00:00</t>
+    <t>2023-07-28T15:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:56:18+00:00</t>
+    <t>2023-07-28T15:56:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:56:48+00:00</t>
+    <t>2023-08-03T06:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T06:47:21+00:00</t>
+    <t>2023-08-03T06:58:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T06:58:34+00:00</t>
+    <t>2023-08-05T15:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T15:47:22+00:00</t>
+    <t>2023-08-05T16:48:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T16:48:40+00:00</t>
+    <t>2023-08-05T17:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:00:40+00:00</t>
+    <t>2023-08-05T17:09:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:09:05+00:00</t>
+    <t>2023-08-06T13:17:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T13:17:58+00:00</t>
+    <t>2023-08-23T14:17:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>Need to make sure we encompass public health studies.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>ObservationalStudyProtocolVersion; Study;
@@ -1893,16 +1897,16 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>37</v>
@@ -1913,10 +1917,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1927,7 +1931,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -1936,19 +1940,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1998,13 +2002,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -2030,10 +2034,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2044,7 +2048,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -2053,16 +2057,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2113,19 +2117,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2134,7 +2138,7 @@
         <v>37</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN3" t="s" s="2">
         <v>37</v>
@@ -2145,10 +2149,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2159,28 +2163,28 @@
         <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2230,19 +2234,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2251,7 +2255,7 @@
         <v>37</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>37</v>
@@ -2262,10 +2266,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2276,7 +2280,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2288,16 +2292,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2323,13 +2327,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2347,19 +2351,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2368,7 +2372,7 @@
         <v>37</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>37</v>
@@ -2379,21 +2383,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2405,16 +2409,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2464,19 +2468,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2485,7 +2489,7 @@
         <v>37</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>37</v>
@@ -2496,14 +2500,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2522,16 +2526,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2581,7 +2585,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>35</v>
@@ -2602,7 +2606,7 @@
         <v>37</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>37</v>
@@ -2613,14 +2617,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2639,16 +2643,16 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2686,19 +2690,19 @@
         <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>35</v>
@@ -2707,10 +2711,10 @@
         <v>36</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2719,7 +2723,7 @@
         <v>37</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>37</v>
@@ -2730,13 +2734,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>37</v>
@@ -2746,10 +2750,10 @@
         <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>37</v>
@@ -2758,13 +2762,13 @@
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2815,7 +2819,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -2824,10 +2828,10 @@
         <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -2847,13 +2851,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>37</v>
@@ -2863,10 +2867,10 @@
         <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>37</v>
@@ -2875,13 +2879,13 @@
         <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2932,7 +2936,7 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -2941,10 +2945,10 @@
         <v>36</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -2964,13 +2968,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>37</v>
@@ -2980,10 +2984,10 @@
         <v>35</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>37</v>
@@ -2992,13 +2996,13 @@
         <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3049,7 +3053,7 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
@@ -3058,10 +3062,10 @@
         <v>36</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -3081,13 +3085,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>37</v>
@@ -3097,10 +3101,10 @@
         <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>37</v>
@@ -3109,13 +3113,13 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3166,7 +3170,7 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
@@ -3175,10 +3179,10 @@
         <v>36</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -3198,13 +3202,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>37</v>
@@ -3217,7 +3221,7 @@
         <v>36</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>37</v>
@@ -3226,13 +3230,13 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3283,7 +3287,7 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -3292,10 +3296,10 @@
         <v>36</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
@@ -3315,13 +3319,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>37</v>
@@ -3334,7 +3338,7 @@
         <v>36</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>37</v>
@@ -3343,13 +3347,13 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3400,7 +3404,7 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -3409,10 +3413,10 @@
         <v>36</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
@@ -3432,14 +3436,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3452,25 +3456,25 @@
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3507,19 +3511,19 @@
         <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3528,10 +3532,10 @@
         <v>36</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>37</v>
@@ -3540,7 +3544,7 @@
         <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -3551,10 +3555,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3574,20 +3578,20 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -3624,19 +3628,19 @@
         <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3645,36 +3649,36 @@
         <v>36</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>37</v>
@@ -3684,29 +3688,29 @@
         <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3755,7 +3759,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3764,33 +3768,33 @@
         <v>36</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3801,7 +3805,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3813,13 +3817,13 @@
         <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3870,13 +3874,13 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
@@ -3891,7 +3895,7 @@
         <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3902,14 +3906,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3928,16 +3932,16 @@
         <v>37</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3975,19 +3979,19 @@
         <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -3996,10 +4000,10 @@
         <v>36</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
@@ -4008,7 +4012,7 @@
         <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4019,10 +4023,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4030,34 +4034,34 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4067,7 +4071,7 @@
         <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>37</v>
@@ -4082,13 +4086,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -4106,28 +4110,28 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4138,10 +4142,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4152,7 +4156,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>37</v>
@@ -4161,22 +4165,22 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4201,13 +4205,13 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4225,28 +4229,28 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4257,10 +4261,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4271,7 +4275,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
@@ -4280,22 +4284,22 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>37</v>
@@ -4308,7 +4312,7 @@
         <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>37</v>
@@ -4344,28 +4348,28 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4376,10 +4380,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4390,7 +4394,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>37</v>
@@ -4399,19 +4403,19 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4425,7 +4429,7 @@
         <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>37</v>
@@ -4461,28 +4465,28 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4493,10 +4497,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4507,7 +4511,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
@@ -4516,19 +4520,19 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4578,28 +4582,28 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4610,10 +4614,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4624,7 +4628,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -4633,19 +4637,19 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4695,28 +4699,28 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -4727,13 +4731,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>37</v>
@@ -4746,26 +4750,26 @@
         <v>36</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4814,7 +4818,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4823,33 +4827,33 @@
         <v>36</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4860,7 +4864,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4872,13 +4876,13 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4929,13 +4933,13 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
@@ -4950,7 +4954,7 @@
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -4961,14 +4965,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4987,16 +4991,16 @@
         <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5034,19 +5038,19 @@
         <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -5055,10 +5059,10 @@
         <v>36</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
@@ -5067,7 +5071,7 @@
         <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5078,10 +5082,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5089,34 +5093,34 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -5126,7 +5130,7 @@
         <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>37</v>
@@ -5141,13 +5145,13 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5165,28 +5169,28 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5197,10 +5201,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5211,7 +5215,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -5220,22 +5224,22 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5260,13 +5264,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5284,28 +5288,28 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -5316,10 +5320,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5330,7 +5334,7 @@
         <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -5339,22 +5343,22 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -5367,7 +5371,7 @@
         <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>37</v>
@@ -5403,28 +5407,28 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5435,10 +5439,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5449,7 +5453,7 @@
         <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -5458,19 +5462,19 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5484,7 +5488,7 @@
         <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>37</v>
@@ -5520,28 +5524,28 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -5552,10 +5556,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5566,7 +5570,7 @@
         <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
@@ -5575,19 +5579,19 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5637,28 +5641,28 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5669,10 +5673,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5683,7 +5687,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5692,19 +5696,19 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5754,28 +5758,28 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -5786,10 +5790,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5800,28 +5804,28 @@
         <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5871,31 +5875,31 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -5903,10 +5907,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5926,19 +5930,19 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5988,7 +5992,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -5997,22 +6001,22 @@
         <v>36</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>37</v>
@@ -6020,14 +6024,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6043,22 +6047,22 @@
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>37</v>
@@ -6107,7 +6111,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -6116,19 +6120,19 @@
         <v>36</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -6139,10 +6143,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6150,31 +6154,31 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6200,13 +6204,13 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
@@ -6224,42 +6228,42 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6270,7 +6274,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -6279,19 +6283,19 @@
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6317,13 +6321,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6341,28 +6345,28 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
@@ -6373,10 +6377,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6387,28 +6391,28 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6434,11 +6438,11 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6456,31 +6460,31 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AN40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6488,10 +6492,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6505,25 +6509,25 @@
         <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6549,10 +6553,10 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>37</v>
@@ -6573,7 +6577,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6582,22 +6586,22 @@
         <v>36</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>37</v>
@@ -6605,10 +6609,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6628,19 +6632,19 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6666,10 +6670,10 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>37</v>
@@ -6690,7 +6694,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6699,33 +6703,33 @@
         <v>36</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6739,25 +6743,25 @@
         <v>36</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6783,13 +6787,13 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>37</v>
@@ -6807,7 +6811,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6816,33 +6820,33 @@
         <v>36</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6856,22 +6860,22 @@
         <v>36</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6922,7 +6926,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -6931,22 +6935,22 @@
         <v>36</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>37</v>
@@ -6954,10 +6958,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6968,7 +6972,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -6980,13 +6984,13 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7037,13 +7041,13 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>37</v>
@@ -7058,7 +7062,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7069,14 +7073,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7095,16 +7099,16 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7142,19 +7146,19 @@
         <v>37</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7163,10 +7167,10 @@
         <v>36</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -7175,7 +7179,7 @@
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7186,13 +7190,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="C47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>37</v>
@@ -7202,10 +7206,10 @@
         <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>37</v>
@@ -7214,13 +7218,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7271,7 +7275,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7280,10 +7284,10 @@
         <v>36</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
@@ -7303,10 +7307,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7317,7 +7321,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -7326,19 +7330,19 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7388,19 +7392,19 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
@@ -7409,7 +7413,7 @@
         <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -7420,10 +7424,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7443,16 +7447,16 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7503,7 +7507,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7512,19 +7516,19 @@
         <v>36</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7535,10 +7539,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7561,16 +7565,16 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7620,7 +7624,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7629,22 +7633,22 @@
         <v>36</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -7652,10 +7656,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7675,19 +7679,19 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7713,10 +7717,10 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>37</v>
@@ -7737,7 +7741,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7746,22 +7750,22 @@
         <v>36</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -7769,10 +7773,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7786,25 +7790,25 @@
         <v>36</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7830,13 +7834,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -7854,7 +7858,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7863,19 +7867,19 @@
         <v>36</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -7886,10 +7890,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7900,10 +7904,10 @@
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -7912,16 +7916,16 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7971,31 +7975,31 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8003,14 +8007,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8020,25 +8024,25 @@
         <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8088,7 +8092,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8097,44 +8101,44 @@
         <v>36</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -8143,19 +8147,19 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8205,42 +8209,42 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8251,28 +8255,28 @@
         <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8322,42 +8326,42 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8368,7 +8372,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>37</v>
@@ -8377,19 +8381,19 @@
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8439,42 +8443,42 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8488,25 +8492,25 @@
         <v>36</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8556,7 +8560,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8565,33 +8569,33 @@
         <v>36</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8602,7 +8606,7 @@
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8611,19 +8615,19 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8649,13 +8653,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -8673,42 +8677,42 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8731,16 +8735,16 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8790,7 +8794,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8799,19 +8803,19 @@
         <v>36</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -8822,10 +8826,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8848,13 +8852,13 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8905,7 +8909,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8914,22 +8918,22 @@
         <v>36</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>37</v>
@@ -8937,10 +8941,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8951,7 +8955,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>37</v>
@@ -8963,13 +8967,13 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9020,13 +9024,13 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>37</v>
@@ -9041,7 +9045,7 @@
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
@@ -9052,14 +9056,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9078,16 +9082,16 @@
         <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9125,19 +9129,19 @@
         <v>37</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9146,10 +9150,10 @@
         <v>36</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>37</v>
@@ -9158,7 +9162,7 @@
         <v>37</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -9169,14 +9173,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9189,25 +9193,25 @@
         <v>37</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -9256,7 +9260,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9265,10 +9269,10 @@
         <v>36</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
@@ -9277,7 +9281,7 @@
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9288,10 +9292,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9299,10 +9303,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>37</v>
@@ -9314,16 +9318,16 @@
         <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9373,31 +9377,31 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9405,10 +9409,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9419,7 +9423,7 @@
         <v>35</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>37</v>
@@ -9431,16 +9435,16 @@
         <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9490,31 +9494,31 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>37</v>
@@ -9522,10 +9526,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9536,7 +9540,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -9548,16 +9552,16 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9607,31 +9611,31 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -9639,10 +9643,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9665,13 +9669,13 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9722,7 +9726,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -9731,19 +9735,19 @@
         <v>36</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -9754,10 +9758,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9768,7 +9772,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -9780,13 +9784,13 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9837,13 +9841,13 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>37</v>
@@ -9858,7 +9862,7 @@
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -9869,14 +9873,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9895,16 +9899,16 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9942,19 +9946,19 @@
         <v>37</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -9963,10 +9967,10 @@
         <v>36</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>37</v>
@@ -9975,7 +9979,7 @@
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>37</v>
@@ -9986,14 +9990,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10006,25 +10010,25 @@
         <v>37</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>37</v>
@@ -10073,7 +10077,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10082,10 +10086,10 @@
         <v>36</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>37</v>
@@ -10094,7 +10098,7 @@
         <v>37</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -10105,10 +10109,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10119,7 +10123,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>37</v>
@@ -10131,16 +10135,16 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10190,28 +10194,28 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10222,10 +10226,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10236,7 +10240,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
@@ -10248,16 +10252,16 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10283,13 +10287,13 @@
         <v>37</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
@@ -10307,28 +10311,28 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>37</v>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T14:17:04+00:00</t>
+    <t>2023-08-30T13:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T13:32:08+00:00</t>
+    <t>2023-09-01T08:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:48:57+00:00</t>
+    <t>2023-09-01T14:26:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:26:19+00:00</t>
+    <t>2023-09-01T14:41:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:41:02+00:00</t>
+    <t>2023-09-04T08:22:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T08:22:22+00:00</t>
+    <t>2023-09-04T12:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T12:29:28+00:00</t>
+    <t>2023-09-15T14:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T14:08:50+00:00</t>
+    <t>2023-09-15T14:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T14:15:22+00:00</t>
+    <t>2023-09-20T09:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:41:37+00:00</t>
+    <t>2023-09-20T10:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T10:01:10+00:00</t>
+    <t>2023-09-22T15:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T15:13:42+00:00</t>
+    <t>2023-10-04T13:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1005,10 +1005,58 @@
 </t>
   </si>
   <si>
-    <t>type de contact : Public ou Scientific</t>
+    <t>Type de contact : Public ou Scientific</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du projet ECLAIRE qui indique le type de Contact : Public ou Scientific</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-address</t>
+  </si>
+  <si>
+    <t>eclaire-contact-address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-address}
+</t>
+  </si>
+  <si>
+    <t>Adresse du contact</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer l'adresse du contact</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-affiliation</t>
+  </si>
+  <si>
+    <t>eclaire-contact-affiliation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-affiliation}
+</t>
+  </si>
+  <si>
+    <t>Affiliation du contact</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer l'affiliation du contact</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contact.extension:eclaire-contact-name</t>
+  </si>
+  <si>
+    <t>eclaire-contact-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-contact-name}
+</t>
+  </si>
+  <si>
+    <t>Nom du contact</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer le nom de contact</t>
   </si>
   <si>
     <t>ResearchStudy.contact.name</t>
@@ -1748,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1757,7 +1805,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.40234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7310,9 +7358,11 @@
         <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>37</v>
       </c>
@@ -7324,26 +7374,24 @@
         <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7392,19 +7440,19 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>322</v>
+        <v>163</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
@@ -7413,7 +7461,7 @@
         <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -7427,9 +7475,11 @@
         <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>37</v>
       </c>
@@ -7438,25 +7488,25 @@
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7507,7 +7557,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7519,16 +7569,16 @@
         <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>330</v>
+        <v>37</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7539,12 +7589,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>37</v>
       </c>
@@ -7553,7 +7605,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7565,17 +7617,15 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7624,7 +7674,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>331</v>
+        <v>163</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7636,19 +7686,19 @@
         <v>59</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -7656,10 +7706,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7670,7 +7720,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7682,16 +7732,16 @@
         <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7717,10 +7767,10 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>37</v>
@@ -7741,13 +7791,13 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>59</v>
@@ -7756,16 +7806,16 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>342</v>
+        <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>343</v>
+        <v>37</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -7773,10 +7823,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7790,7 +7840,7 @@
         <v>36</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
@@ -7799,17 +7849,15 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -7834,13 +7882,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -7858,7 +7906,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7870,16 +7918,16 @@
         <v>59</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -7890,10 +7938,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7904,10 +7952,10 @@
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -7916,16 +7964,16 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7975,13 +8023,13 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>59</v>
@@ -7990,7 +8038,7 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>37</v>
@@ -7999,7 +8047,7 @@
         <v>68</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8007,14 +8055,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>358</v>
+        <v>37</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8024,7 +8072,7 @@
         <v>36</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>37</v>
@@ -8033,16 +8081,16 @@
         <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>359</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>362</v>
+        <v>272</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8068,10 +8116,10 @@
         <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>37</v>
@@ -8092,7 +8140,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8104,44 +8152,44 @@
         <v>59</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>368</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>37</v>
@@ -8150,16 +8198,16 @@
         <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8185,13 +8233,13 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
@@ -8209,42 +8257,42 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>375</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8264,19 +8312,19 @@
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>249</v>
+        <v>369</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8326,7 +8374,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8338,44 +8386,44 @@
         <v>59</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>380</v>
+        <v>68</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>382</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>37</v>
@@ -8384,16 +8432,16 @@
         <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8443,13 +8491,13 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>59</v>
@@ -8458,41 +8506,41 @@
         <v>224</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>37</v>
@@ -8501,16 +8549,16 @@
         <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8560,42 +8608,42 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>37</v>
+        <v>387</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8609,7 +8657,7 @@
         <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>37</v>
@@ -8618,16 +8666,16 @@
         <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8653,13 +8701,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -8677,7 +8725,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8689,30 +8737,30 @@
         <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>277</v>
+        <v>395</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8723,7 +8771,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8732,19 +8780,19 @@
         <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>409</v>
+        <v>249</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8794,42 +8842,42 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>37</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8843,24 +8891,26 @@
         <v>36</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -8909,7 +8959,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8921,30 +8971,30 @@
         <v>59</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>68</v>
+        <v>403</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>37</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8964,18 +9014,20 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>157</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9000,13 +9052,13 @@
         <v>37</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>37</v>
+        <v>415</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>37</v>
@@ -9024,7 +9076,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>159</v>
+        <v>412</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9033,37 +9085,37 @@
         <v>47</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>37</v>
+        <v>417</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>37</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9082,16 +9134,16 @@
         <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>95</v>
+        <v>421</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>96</v>
+        <v>422</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>162</v>
+        <v>423</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>98</v>
+        <v>424</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9129,19 +9181,19 @@
         <v>37</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>163</v>
+        <v>420</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9153,16 +9205,16 @@
         <v>59</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>61</v>
+        <v>426</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
@@ -9173,14 +9225,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9193,26 +9245,22 @@
         <v>37</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>95</v>
+        <v>428</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
       </c>
@@ -9260,7 +9308,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9272,19 +9320,19 @@
         <v>59</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>37</v>
+        <v>431</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>37</v>
+        <v>432</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>37</v>
@@ -9292,10 +9340,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9303,7 +9351,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>47</v>
@@ -9321,14 +9369,12 @@
         <v>156</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>157</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>37</v>
@@ -9377,22 +9423,22 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>159</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
@@ -9401,7 +9447,7 @@
         <v>68</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9409,21 +9455,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>37</v>
@@ -9435,16 +9481,16 @@
         <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>431</v>
+        <v>96</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>432</v>
+        <v>162</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9482,43 +9528,43 @@
         <v>37</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>430</v>
+        <v>163</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>433</v>
+        <v>37</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>277</v>
+        <v>61</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>37</v>
@@ -9533,37 +9579,39 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>37</v>
+        <v>436</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>37</v>
       </c>
@@ -9611,31 +9659,31 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>438</v>
+        <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>439</v>
+        <v>37</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>37</v>
@@ -9654,10 +9702,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>37</v>
@@ -9669,7 +9717,7 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>413</v>
+        <v>156</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>441</v>
@@ -9677,7 +9725,9 @@
       <c r="M68" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>37</v>
@@ -9729,10 +9779,10 @@
         <v>440</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>59</v>
@@ -9750,7 +9800,7 @@
         <v>68</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>37</v>
@@ -9758,10 +9808,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9784,15 +9834,17 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>157</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>37</v>
@@ -9841,7 +9893,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
@@ -9850,22 +9902,22 @@
         <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>37</v>
@@ -9873,21 +9925,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>37</v>
@@ -9899,16 +9951,16 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>96</v>
+        <v>451</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>162</v>
+        <v>452</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9946,43 +9998,43 @@
         <v>37</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>37</v>
@@ -9990,14 +10042,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10010,26 +10062,22 @@
         <v>37</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>95</v>
+        <v>428</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>37</v>
       </c>
@@ -10077,7 +10125,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10089,16 +10137,16 @@
         <v>59</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>37</v>
+        <v>458</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>37</v>
@@ -10109,10 +10157,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10138,14 +10186,12 @@
         <v>156</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>157</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>37</v>
@@ -10194,7 +10240,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>159</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10203,13 +10249,13 @@
         <v>47</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
@@ -10226,21 +10272,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>37</v>
@@ -10252,16 +10298,16 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>452</v>
+        <v>96</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>453</v>
+        <v>162</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10287,62 +10333,415 @@
         <v>37</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>454</v>
+        <v>37</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>451</v>
+        <v>163</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AK75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO73" t="s" s="2">
+      <c r="AN76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO73">
+  <autoFilter ref="A1:AO76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10352,7 +10751,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T13:47:44+00:00</t>
+    <t>2023-10-05T16:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:23:11+00:00</t>
+    <t>2023-10-09T13:24:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,22 +364,6 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout d'une date de révision fonctionnelle lorque que l'on souhaite indiquer la date de la dernière modification substancielle</t>
   </si>
   <si>
-    <t>ResearchStudy.extension:eclaire-condition-details</t>
-  </si>
-  <si>
-    <t>eclaire-condition-details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-condition-details}
-</t>
-  </si>
-  <si>
-    <t>Précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de précisions sur le sujet concerné par l'essai</t>
-  </si>
-  <si>
     <t>ResearchStudy.extension:eclaire-therapeutic-area</t>
   </si>
   <si>
@@ -964,10 +948,123 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
+    <t xml:space="preserve">value:id}
+</t>
+  </si>
+  <si>
+    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
+  </si>
+  <si>
     <t>StudyCondition.code</t>
   </si>
   <si>
     <t>Conditions</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition</t>
+  </si>
+  <si>
+    <t>medDRACondition</t>
+  </si>
+  <si>
+    <t>code MedDRA / MedDRA condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.id</t>
+  </si>
+  <si>
+    <t>meddra-condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.text</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition</t>
+  </si>
+  <si>
+    <t>diseaseCondition</t>
+  </si>
+  <si>
+    <t>condition de la pathologie / Disease Condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.id</t>
+  </si>
+  <si>
+    <t>disease-condition</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:diseaseCondition.text</t>
   </si>
   <si>
     <t>ResearchStudy.contact</t>
@@ -1796,7 +1893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1831,7 +1928,7 @@
     <col min="26" max="26" width="71.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="52.18359375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="84.87890625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3149,7 +3246,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>48</v>
@@ -3370,13 +3467,11 @@
         <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3386,25 +3481,29 @@
         <v>36</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="J14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>37</v>
       </c>
@@ -3440,19 +3539,19 @@
         <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -3473,7 +3572,7 @@
         <v>37</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3491,7 +3590,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3504,25 +3603,23 @@
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3559,10 +3656,10 @@
         <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>37</v>
@@ -3571,7 +3668,7 @@
         <v>101</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3583,32 +3680,34 @@
         <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>37</v>
       </c>
@@ -3617,10 +3716,10 @@
         <v>35</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>37</v>
@@ -3629,17 +3728,17 @@
         <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -3676,19 +3775,19 @@
         <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3703,31 +3802,29 @@
         <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>37</v>
       </c>
@@ -3739,27 +3836,25 @@
         <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>37</v>
       </c>
@@ -3807,53 +3902,53 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3865,15 +3960,17 @@
         <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>37</v>
@@ -3910,31 +4007,31 @@
         <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
@@ -3943,7 +4040,7 @@
         <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3954,44 +4051,46 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
       </c>
@@ -4000,7 +4099,7 @@
         <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>37</v>
@@ -4015,52 +4114,52 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4071,10 +4170,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4082,7 +4181,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>47</v>
@@ -4091,25 +4190,25 @@
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4119,7 +4218,7 @@
         <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>37</v>
@@ -4134,13 +4233,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -4158,7 +4257,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4176,10 +4275,10 @@
         <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4190,10 +4289,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4216,19 +4315,19 @@
         <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4241,7 +4340,7 @@
         <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>37</v>
@@ -4253,13 +4352,13 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4277,7 +4376,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4295,10 +4394,10 @@
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -4309,10 +4408,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4335,20 +4434,18 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>37</v>
       </c>
@@ -4360,7 +4457,7 @@
         <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>37</v>
@@ -4396,7 +4493,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4414,10 +4511,10 @@
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
@@ -4428,10 +4525,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4454,16 +4551,16 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4477,7 +4574,7 @@
         <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>37</v>
@@ -4513,7 +4610,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4525,16 +4622,16 @@
         <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4545,10 +4642,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4571,16 +4668,16 @@
         <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4630,7 +4727,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4642,16 +4739,16 @@
         <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4662,12 +4759,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4676,10 +4775,10 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>37</v>
@@ -4688,18 +4787,18 @@
         <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4747,46 +4846,44 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>37</v>
       </c>
@@ -4795,30 +4892,28 @@
         <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>37</v>
       </c>
@@ -4866,53 +4961,53 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4924,15 +5019,17 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>37</v>
@@ -4969,31 +5066,31 @@
         <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
@@ -5002,7 +5099,7 @@
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -5013,44 +5110,46 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>162</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>37</v>
       </c>
@@ -5059,7 +5158,7 @@
         <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>37</v>
@@ -5074,52 +5173,52 @@
         <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5130,10 +5229,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5141,7 +5240,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>47</v>
@@ -5150,25 +5249,25 @@
         <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -5178,7 +5277,7 @@
         <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>37</v>
@@ -5193,13 +5292,13 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5217,7 +5316,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5235,10 +5334,10 @@
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>37</v>
@@ -5249,10 +5348,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5275,19 +5374,19 @@
         <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5300,7 +5399,7 @@
         <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>37</v>
@@ -5312,13 +5411,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5336,7 +5435,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5354,10 +5453,10 @@
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -5368,10 +5467,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5394,20 +5493,18 @@
         <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>37</v>
       </c>
@@ -5419,7 +5516,7 @@
         <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>37</v>
@@ -5455,7 +5552,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5473,10 +5570,10 @@
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5487,10 +5584,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5513,16 +5610,16 @@
         <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5536,7 +5633,7 @@
         <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>37</v>
@@ -5572,7 +5669,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5584,16 +5681,16 @@
         <v>59</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -5604,10 +5701,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5630,16 +5727,16 @@
         <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5689,7 +5786,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5701,16 +5798,16 @@
         <v>59</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5721,10 +5818,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5738,7 +5835,7 @@
         <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>37</v>
@@ -5747,16 +5844,16 @@
         <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5806,7 +5903,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5818,19 +5915,19 @@
         <v>59</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -5838,10 +5935,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5852,10 +5949,10 @@
         <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>37</v>
@@ -5864,16 +5961,16 @@
         <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5923,31 +6020,31 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -5955,14 +6052,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5981,18 +6078,20 @@
         <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>37</v>
       </c>
@@ -6040,7 +6139,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6052,19 +6151,19 @@
         <v>59</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>37</v>
@@ -6072,46 +6171,44 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>37</v>
       </c>
@@ -6135,13 +6232,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -6159,42 +6256,42 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>37</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6202,31 +6299,31 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6252,34 +6349,34 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AG38" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>47</v>
@@ -6291,27 +6388,27 @@
         <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>268</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6325,7 +6422,7 @@
         <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>37</v>
@@ -6334,16 +6431,16 @@
         <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6369,31 +6466,29 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y39" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y39" s="2"/>
+      <c r="Z39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6408,16 +6503,16 @@
         <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6425,10 +6520,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6439,7 +6534,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>48</v>
@@ -6451,16 +6546,16 @@
         <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6486,11 +6581,13 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6508,13 +6605,13 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>59</v>
@@ -6523,16 +6620,16 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6540,10 +6637,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6557,7 +6654,7 @@
         <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
@@ -6566,16 +6663,16 @@
         <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6601,10 +6698,10 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>37</v>
@@ -6625,7 +6722,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6640,27 +6737,27 @@
         <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6674,7 +6771,7 @@
         <v>36</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>37</v>
@@ -6683,16 +6780,16 @@
         <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6718,31 +6815,31 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6757,29 +6854,31 @@
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>37</v>
       </c>
@@ -6800,16 +6899,16 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6835,13 +6934,13 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>37</v>
@@ -6859,7 +6958,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6874,19 +6973,19 @@
         <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -6894,7 +6993,7 @@
         <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6902,28 +7001,28 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>152</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
+        <v>153</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6935,7 +7034,7 @@
         <v>37</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>37</v>
@@ -6974,22 +7073,22 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>309</v>
+        <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
@@ -6998,7 +7097,7 @@
         <v>68</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>37</v>
@@ -7006,21 +7105,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -7032,15 +7131,17 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -7077,31 +7178,31 @@
         <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -7110,7 +7211,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7121,14 +7222,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7144,21 +7245,23 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
       </c>
@@ -7194,19 +7297,19 @@
         <v>37</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7218,16 +7321,16 @@
         <v>59</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>61</v>
+        <v>319</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7238,14 +7341,12 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>37</v>
       </c>
@@ -7257,25 +7358,29 @@
         <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
       </c>
@@ -7323,28 +7428,28 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -7355,13 +7460,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>37</v>
@@ -7371,7 +7476,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>48</v>
@@ -7380,18 +7485,20 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>320</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7416,13 +7523,13 @@
         <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>37</v>
@@ -7440,7 +7547,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7452,46 +7559,44 @@
         <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
@@ -7500,13 +7605,13 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>325</v>
+        <v>151</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>326</v>
+        <v>152</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>327</v>
+        <v>153</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7518,7 +7623,7 @@
         <v>37</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>37</v>
@@ -7557,19 +7662,19 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
@@ -7578,7 +7683,7 @@
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7589,23 +7694,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7617,15 +7720,17 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>331</v>
+        <v>96</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7662,19 +7767,19 @@
         <v>37</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7695,7 +7800,7 @@
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -7706,10 +7811,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7720,7 +7825,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7732,18 +7837,20 @@
         <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
       </c>
@@ -7791,13 +7898,13 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>59</v>
@@ -7809,10 +7916,10 @@
         <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -7823,10 +7930,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7837,7 +7944,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -7849,16 +7956,20 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
       </c>
@@ -7906,28 +8017,28 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>343</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -7938,10 +8049,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7955,26 +8066,24 @@
         <v>36</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
@@ -8023,7 +8132,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -8038,7 +8147,7 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>37</v>
@@ -8047,7 +8156,7 @@
         <v>68</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8055,10 +8164,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8069,7 +8178,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8078,20 +8187,18 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>37</v>
@@ -8116,10 +8223,10 @@
         <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>37</v>
@@ -8140,31 +8247,31 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>154</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>357</v>
+        <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>358</v>
+        <v>37</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>37</v>
@@ -8172,14 +8279,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8189,25 +8296,25 @@
         <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>96</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>361</v>
+        <v>157</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8233,31 +8340,31 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>362</v>
+        <v>37</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>363</v>
+        <v>37</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8269,16 +8376,16 @@
         <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>364</v>
+        <v>37</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>277</v>
+        <v>61</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
@@ -8289,12 +8396,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>37</v>
       </c>
@@ -8315,17 +8424,15 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -8374,31 +8481,31 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>365</v>
+        <v>158</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>370</v>
+        <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>37</v>
@@ -8406,21 +8513,23 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="D57" t="s" s="2">
-        <v>373</v>
+        <v>37</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>48</v>
@@ -8429,20 +8538,18 @@
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8491,7 +8598,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8503,34 +8610,36 @@
         <v>59</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>378</v>
+        <v>37</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>379</v>
+        <v>37</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>381</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D58" t="s" s="2">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8540,26 +8649,24 @@
         <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>209</v>
+        <v>357</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>37</v>
@@ -8608,44 +8715,46 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>382</v>
+        <v>158</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>387</v>
+        <v>37</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>388</v>
+        <v>37</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>390</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>37</v>
       </c>
@@ -8657,26 +8766,24 @@
         <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>219</v>
+        <v>362</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8725,42 +8832,42 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>158</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>394</v>
+        <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>397</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8783,16 +8890,16 @@
         <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>399</v>
+        <v>151</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8842,7 +8949,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -8854,30 +8961,30 @@
         <v>59</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>403</v>
+        <v>68</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>404</v>
+        <v>37</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>397</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8891,7 +8998,7 @@
         <v>36</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>37</v>
@@ -8900,17 +9007,15 @@
         <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -8959,7 +9064,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -8971,30 +9076,30 @@
         <v>59</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>224</v>
+        <v>375</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>409</v>
+        <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>410</v>
+        <v>37</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>411</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9005,7 +9110,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>37</v>
@@ -9014,19 +9119,19 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>178</v>
+        <v>379</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>272</v>
+        <v>382</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9052,13 +9157,13 @@
         <v>37</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>37</v>
@@ -9076,13 +9181,13 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>59</v>
@@ -9091,27 +9196,27 @@
         <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>419</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9131,19 +9236,19 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>421</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>424</v>
+        <v>267</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9169,10 +9274,10 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>37</v>
@@ -9193,7 +9298,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9208,16 +9313,16 @@
         <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>426</v>
+        <v>272</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>37</v>
@@ -9225,10 +9330,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9242,24 +9347,26 @@
         <v>36</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>428</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -9284,13 +9391,13 @@
         <v>37</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>37</v>
+        <v>394</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>37</v>
+        <v>395</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>37</v>
@@ -9308,7 +9415,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9323,16 +9430,16 @@
         <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>37</v>
@@ -9340,10 +9447,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9357,7 +9464,7 @@
         <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>37</v>
@@ -9366,15 +9473,17 @@
         <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>156</v>
+        <v>398</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>157</v>
+        <v>399</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>37</v>
@@ -9423,7 +9532,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>159</v>
+        <v>397</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
@@ -9432,13 +9541,13 @@
         <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>37</v>
+        <v>402</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
@@ -9447,7 +9556,7 @@
         <v>68</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9455,14 +9564,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>94</v>
+        <v>405</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9472,25 +9581,25 @@
         <v>36</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>95</v>
+        <v>406</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>96</v>
+        <v>407</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>162</v>
+        <v>408</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>98</v>
+        <v>409</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9528,19 +9637,19 @@
         <v>37</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>163</v>
+        <v>404</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9552,66 +9661,64 @@
         <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>61</v>
+        <v>411</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>37</v>
+        <v>412</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>37</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>37</v>
       </c>
@@ -9659,42 +9766,42 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>61</v>
+        <v>420</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>37</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9702,31 +9809,31 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9776,10 +9883,10 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>47</v>
@@ -9788,30 +9895,30 @@
         <v>59</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>68</v>
+        <v>427</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>37</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9831,19 +9938,19 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>178</v>
+        <v>431</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9893,7 +10000,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
@@ -9905,30 +10012,30 @@
         <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>277</v>
+        <v>435</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>37</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9939,28 +10046,28 @@
         <v>35</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>156</v>
+        <v>438</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10010,42 +10117,42 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>68</v>
+        <v>435</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>37</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10056,7 +10163,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>37</v>
@@ -10065,18 +10172,20 @@
         <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>428</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>37</v>
@@ -10101,13 +10210,13 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>37</v>
+        <v>447</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>37</v>
@@ -10125,13 +10234,13 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>59</v>
@@ -10140,27 +10249,27 @@
         <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>37</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10171,7 +10280,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>37</v>
@@ -10183,15 +10292,17 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>156</v>
+        <v>453</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>157</v>
+        <v>454</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>37</v>
@@ -10240,28 +10351,28 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>159</v>
+        <v>452</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>37</v>
+        <v>457</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>68</v>
+        <v>458</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>37</v>
@@ -10272,14 +10383,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10298,17 +10409,15 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>96</v>
+        <v>461</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>37</v>
@@ -10345,19 +10454,19 @@
         <v>37</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>163</v>
+        <v>459</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10369,19 +10478,19 @@
         <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>37</v>
+        <v>463</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>37</v>
+        <v>464</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>37</v>
@@ -10389,46 +10498,42 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>436</v>
+        <v>37</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>437</v>
+        <v>152</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>37</v>
       </c>
@@ -10476,19 +10581,19 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>439</v>
+        <v>154</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>37</v>
@@ -10497,7 +10602,7 @@
         <v>37</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>37</v>
@@ -10508,21 +10613,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>37</v>
@@ -10534,16 +10639,16 @@
         <v>37</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>96</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>464</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10581,40 +10686,40 @@
         <v>37</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>462</v>
+        <v>158</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>465</v>
+        <v>37</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>37</v>
@@ -10625,44 +10730,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>37</v>
       </c>
@@ -10686,13 +10793,13 @@
         <v>37</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>469</v>
+        <v>37</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>470</v>
+        <v>37</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>37</v>
@@ -10710,38 +10817,1089 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AK77" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF83" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO76" t="s" s="2">
+      <c r="AG83" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO76">
+  <autoFilter ref="A1:AO85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10751,7 +11909,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T13:24:44+00:00</t>
+    <t>2023-10-14T10:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T10:16:45+00:00</t>
+    <t>2023-10-14T10:31:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -900,25 +900,25 @@
     <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
   </si>
   <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-category-vs</t>
+  </si>
+  <si>
+    <t>InterventionalStudyProtocolVersion; InterventionalStudyProtocol.allocationCode; InterventionalStudyProtocol.blindedRoleCode; InterventionalStudyProtocol.blindingSchemaCode; InterventionalStudyProtocol.controlTypeCode</t>
+  </si>
+  <si>
+    <t>Study Type; Primary Purpose; Interventional Model; Masking; Allocation; study Classification; Observational Study Model; Time Perspective; Biospecimen Retention</t>
+  </si>
+  <si>
+    <t>ResearchStudy.focus</t>
+  </si>
+  <si>
+    <t>Drugs, devices, etc. under study</t>
+  </si>
+  <si>
+    <t>The medication(s), food(s), therapy(ies), device(s) or other concerns or interventions that the study is seeking to gain more information about.</t>
+  </si>
+  <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes that describe the type of research study.  E.g. Study phase, Interventional/Observational, blinding type, etc.</t>
-  </si>
-  <si>
-    <t>InterventionalStudyProtocolVersion; InterventionalStudyProtocol.allocationCode; InterventionalStudyProtocol.blindedRoleCode; InterventionalStudyProtocol.blindingSchemaCode; InterventionalStudyProtocol.controlTypeCode</t>
-  </si>
-  <si>
-    <t>Study Type; Primary Purpose; Interventional Model; Masking; Allocation; study Classification; Observational Study Model; Time Perspective; Biospecimen Retention</t>
-  </si>
-  <si>
-    <t>ResearchStudy.focus</t>
-  </si>
-  <si>
-    <t>Drugs, devices, etc. under study</t>
-  </si>
-  <si>
-    <t>The medication(s), food(s), therapy(ies), device(s) or other concerns or interventions that the study is seeking to gain more information about.</t>
   </si>
   <si>
     <t>Codes for medications, devices and other interventions.</t>
@@ -1924,7 +1924,7 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="106.69140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="71.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
@@ -6581,13 +6581,11 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6620,7 +6618,7 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>271</v>
@@ -6629,7 +6627,7 @@
         <v>272</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6637,10 +6635,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6666,10 +6664,10 @@
         <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>267</v>
@@ -6698,7 +6696,7 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Y41" t="s" s="2">
         <v>289</v>
@@ -6722,7 +6720,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6815,7 +6813,7 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Y42" t="s" s="2">
         <v>296</v>
@@ -6934,7 +6932,7 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Y43" t="s" s="2">
         <v>296</v>
@@ -7523,7 +7521,7 @@
         <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Y48" t="s" s="2">
         <v>296</v>
@@ -9274,7 +9272,7 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Y63" t="s" s="2">
         <v>388</v>
@@ -10210,7 +10208,7 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Y71" t="s" s="2">
         <v>447</v>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T10:31:55+00:00</t>
+    <t>2023-10-17T10:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T10:04:53+00:00</t>
+    <t>2023-10-19T15:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -948,11 +948,8 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
-    <t xml:space="preserve">value:id}
-</t>
-  </si>
-  <si>
-    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
+    <t xml:space="preserve">Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel.
+Ainsi la slice medDRACondition contient un code meddra, la slice diseaseCondition contient un texte libre. </t>
   </si>
   <si>
     <t>StudyCondition.code</t>
@@ -1014,6 +1011,151 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.version</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.display</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
   </si>
   <si>
     <t>ResearchStudy.condition:medDRACondition.text</t>
@@ -1893,7 +2035,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AO92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1902,8 +2044,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.40234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.55078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -1928,7 +2070,7 @@
     <col min="26" max="26" width="71.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="84.87890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="244.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -6825,10 +6967,10 @@
         <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC42" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>37</v>
@@ -6852,7 +6994,7 @@
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>271</v>
@@ -6861,7 +7003,7 @@
         <v>272</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>292</v>
@@ -6869,13 +7011,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>37</v>
@@ -6900,7 +7042,7 @@
         <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>295</v>
@@ -6971,7 +7113,7 @@
         <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>271</v>
@@ -6980,7 +7122,7 @@
         <v>272</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>292</v>
@@ -6988,10 +7130,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6999,7 +7141,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>47</v>
@@ -7032,7 +7174,7 @@
         <v>37</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>37</v>
@@ -7103,10 +7245,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7220,10 +7362,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7246,19 +7388,19 @@
         <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7307,7 +7449,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7325,10 +7467,10 @@
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7339,10 +7481,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7362,23 +7504,19 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>151</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>322</v>
+        <v>152</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>37</v>
       </c>
@@ -7426,7 +7564,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>154</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7435,19 +7573,19 @@
         <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>328</v>
+        <v>68</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -7458,16 +7596,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7477,25 +7613,25 @@
         <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>96</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7521,31 +7657,31 @@
         <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>293</v>
+        <v>158</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7557,30 +7693,30 @@
         <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>292</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7588,7 +7724,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>47</v>
@@ -7600,19 +7736,23 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>152</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>37</v>
       </c>
@@ -7621,7 +7761,7 @@
         <v>37</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>37</v>
@@ -7660,7 +7800,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>154</v>
+        <v>330</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7669,19 +7809,19 @@
         <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>68</v>
+        <v>332</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7692,21 +7832,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7715,19 +7855,19 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7765,40 +7905,40 @@
         <v>37</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -7809,10 +7949,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7823,7 +7963,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7835,19 +7975,19 @@
         <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -7896,13 +8036,13 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>59</v>
@@ -7914,10 +8054,10 @@
         <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -7928,10 +8068,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7957,16 +8097,16 @@
         <v>151</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -8015,7 +8155,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -8033,10 +8173,10 @@
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -8047,10 +8187,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8061,10 +8201,10 @@
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -8073,16 +8213,20 @@
         <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>37</v>
       </c>
@@ -8130,13 +8274,13 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>59</v>
@@ -8145,16 +8289,16 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>68</v>
+        <v>366</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>342</v>
+        <v>37</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8162,10 +8306,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8185,19 +8329,23 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>151</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>152</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
       </c>
@@ -8245,7 +8393,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>154</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8254,19 +8402,19 @@
         <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>68</v>
+        <v>375</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8277,14 +8425,16 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D55" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8294,25 +8444,25 @@
         <v>36</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8338,31 +8488,31 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>158</v>
+        <v>293</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8374,34 +8524,32 @@
         <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>37</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>37</v>
       </c>
@@ -8413,7 +8561,7 @@
         <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
@@ -8422,13 +8570,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>347</v>
+        <v>151</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>348</v>
+        <v>152</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>349</v>
+        <v>153</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8440,7 +8588,7 @@
         <v>37</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>37</v>
@@ -8479,19 +8627,19 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
@@ -8500,7 +8648,7 @@
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>37</v>
@@ -8511,26 +8659,24 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>37</v>
@@ -8539,15 +8685,17 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>352</v>
+        <v>95</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8584,16 +8732,16 @@
         <v>37</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>158</v>
@@ -8617,7 +8765,7 @@
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
@@ -8628,14 +8776,12 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>37</v>
       </c>
@@ -8644,28 +8790,32 @@
         <v>35</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K58" t="s" s="2">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>37</v>
       </c>
@@ -8713,7 +8863,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8725,16 +8875,16 @@
         <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
@@ -8745,20 +8895,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>47</v>
@@ -8770,19 +8918,23 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>362</v>
+        <v>151</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>37</v>
       </c>
@@ -8830,28 +8982,28 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -8862,10 +9014,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8876,10 +9028,10 @@
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>37</v>
@@ -8888,17 +9040,15 @@
         <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
@@ -8947,13 +9097,13 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>59</v>
@@ -8962,7 +9112,7 @@
         <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>37</v>
@@ -8971,7 +9121,7 @@
         <v>68</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>37</v>
@@ -8979,10 +9129,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8993,7 +9143,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -9002,16 +9152,16 @@
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>371</v>
+        <v>151</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>373</v>
+        <v>153</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9062,28 +9212,28 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>374</v>
+        <v>154</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>377</v>
+        <v>68</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -9094,14 +9244,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9120,16 +9270,16 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>379</v>
+        <v>95</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>381</v>
+        <v>157</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>382</v>
+        <v>98</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9167,19 +9317,19 @@
         <v>37</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>378</v>
+        <v>158</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9191,19 +9341,19 @@
         <v>59</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>37</v>
@@ -9211,12 +9361,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>37</v>
       </c>
@@ -9225,29 +9377,27 @@
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>173</v>
+        <v>394</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>37</v>
@@ -9272,10 +9422,10 @@
         <v>37</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>388</v>
+        <v>37</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>37</v>
@@ -9296,7 +9446,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>385</v>
+        <v>158</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9308,19 +9458,19 @@
         <v>59</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>390</v>
+        <v>37</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>37</v>
@@ -9328,12 +9478,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>37</v>
       </c>
@@ -9342,7 +9494,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>48</v>
@@ -9351,20 +9503,18 @@
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>399</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>37</v>
@@ -9389,13 +9539,13 @@
         <v>37</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>394</v>
+        <v>37</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>37</v>
@@ -9413,7 +9563,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>391</v>
+        <v>158</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9425,16 +9575,16 @@
         <v>59</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -9445,12 +9595,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>37</v>
       </c>
@@ -9471,17 +9623,15 @@
         <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>37</v>
@@ -9530,31 +9680,31 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>397</v>
+        <v>158</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -9562,43 +9712,43 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D66" t="s" s="2">
-        <v>405</v>
+        <v>37</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>37</v>
@@ -9647,7 +9797,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>404</v>
+        <v>158</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -9659,34 +9809,34 @@
         <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>410</v>
+        <v>37</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>411</v>
+        <v>37</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>412</v>
+        <v>37</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>413</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9705,16 +9855,16 @@
         <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>207</v>
+        <v>415</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9764,7 +9914,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -9776,30 +9926,30 @@
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>419</v>
+        <v>37</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>420</v>
+        <v>68</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>422</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9810,10 +9960,10 @@
         <v>35</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>37</v>
@@ -9822,17 +9972,15 @@
         <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>418</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>37</v>
@@ -9881,42 +10029,42 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>219</v>
+        <v>422</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>426</v>
+        <v>37</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9927,7 +10075,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -9936,19 +10084,19 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>244</v>
+        <v>429</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9998,42 +10146,42 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>435</v>
+        <v>68</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>429</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10047,7 +10195,7 @@
         <v>36</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>37</v>
@@ -10056,16 +10204,16 @@
         <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>438</v>
+        <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10091,10 +10239,10 @@
         <v>37</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>37</v>
+        <v>435</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>37</v>
@@ -10115,7 +10263,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -10127,30 +10275,30 @@
         <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>435</v>
+        <v>272</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>443</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10161,10 +10309,10 @@
         <v>35</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>37</v>
@@ -10176,10 +10324,10 @@
         <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>267</v>
@@ -10208,13 +10356,13 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>37</v>
@@ -10232,13 +10380,13 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>59</v>
@@ -10247,7 +10395,7 @@
         <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>271</v>
@@ -10256,18 +10404,18 @@
         <v>272</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>451</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10278,10 +10426,10 @@
         <v>35</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>37</v>
@@ -10290,16 +10438,16 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10349,13 +10497,13 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>59</v>
@@ -10364,16 +10512,16 @@
         <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>458</v>
+        <v>68</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>37</v>
@@ -10381,14 +10529,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>37</v>
+        <v>452</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10398,24 +10546,26 @@
         <v>36</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>37</v>
@@ -10464,7 +10614,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10476,34 +10626,34 @@
         <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>68</v>
+        <v>458</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>37</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>37</v>
+        <v>462</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10519,18 +10669,20 @@
         <v>37</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>152</v>
+        <v>463</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>37</v>
@@ -10579,7 +10731,7 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>154</v>
+        <v>461</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
@@ -10588,65 +10740,65 @@
         <v>47</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>37</v>
+        <v>465</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>37</v>
+        <v>466</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>68</v>
+        <v>467</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>37</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>96</v>
+        <v>471</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>157</v>
+        <v>472</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10684,90 +10836,88 @@
         <v>37</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>158</v>
+        <v>470</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>37</v>
+        <v>473</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>61</v>
+        <v>474</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>37</v>
+        <v>475</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>37</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>468</v>
+        <v>37</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>95</v>
+        <v>478</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>37</v>
       </c>
@@ -10815,42 +10965,42 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>37</v>
+        <v>481</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>61</v>
+        <v>482</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>37</v>
+        <v>483</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>37</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10858,31 +11008,31 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>151</v>
+        <v>485</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10932,42 +11082,42 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>68</v>
+        <v>482</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>37</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10987,16 +11137,16 @@
         <v>37</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>173</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>267</v>
@@ -11025,13 +11175,13 @@
         <v>37</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>37</v>
+        <v>494</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>37</v>
+        <v>495</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>37</v>
@@ -11049,7 +11199,7 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>35</v>
@@ -11064,7 +11214,7 @@
         <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>271</v>
@@ -11073,18 +11223,18 @@
         <v>272</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>37</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11095,7 +11245,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>37</v>
@@ -11107,16 +11257,16 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>237</v>
+        <v>503</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11166,13 +11316,13 @@
         <v>37</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>59</v>
@@ -11181,16 +11331,16 @@
         <v>60</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>68</v>
+        <v>505</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>486</v>
+        <v>37</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>37</v>
@@ -11198,10 +11348,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11224,13 +11374,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11281,7 +11431,7 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>35</v>
@@ -11296,7 +11446,7 @@
         <v>60</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>37</v>
@@ -11305,7 +11455,7 @@
         <v>68</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>37</v>
+        <v>511</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>37</v>
@@ -11313,10 +11463,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11428,10 +11578,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11545,14 +11695,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>468</v>
+        <v>515</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11574,10 +11724,10 @@
         <v>95</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>98</v>
@@ -11632,7 +11782,7 @@
         <v>37</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>35</v>
@@ -11664,10 +11814,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11675,7 +11825,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>47</v>
@@ -11693,10 +11843,10 @@
         <v>151</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>237</v>
@@ -11749,10 +11899,10 @@
         <v>37</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>47</v>
@@ -11764,7 +11914,7 @@
         <v>60</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>37</v>
@@ -11773,7 +11923,7 @@
         <v>68</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>37</v>
+        <v>523</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>37</v>
@@ -11781,10 +11931,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11810,10 +11960,10 @@
         <v>173</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>267</v>
@@ -11842,13 +11992,13 @@
         <v>37</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>501</v>
+        <v>37</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>502</v>
+        <v>37</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>37</v>
@@ -11866,7 +12016,7 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>35</v>
@@ -11881,7 +12031,7 @@
         <v>60</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>271</v>
@@ -11890,14 +12040,831 @@
         <v>272</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>37</v>
+        <v>528</v>
       </c>
       <c r="AO85" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO85">
+  <autoFilter ref="A1:AO92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11907,7 +12874,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T15:25:12+00:00</t>
+    <t>2023-10-19T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T16:10:03+00:00</t>
+    <t>2023-10-20T07:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T08:59:58+00:00</t>
+    <t>2023-10-20T10:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:14:02+00:00</t>
+    <t>2023-10-20T10:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>iso:code:3166:FR</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:34:54+00:00</t>
+    <t>2023-10-20T10:58:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:58:43+00:00</t>
+    <t>2023-10-20T11:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>France</t>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T11:42:03+00:00</t>
+    <t>2023-10-20T11:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T11:56:25+00:00</t>
+    <t>2023-10-23T16:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T16:47:01+00:00</t>
+    <t>2023-10-23T17:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T17:13:00+00:00</t>
+    <t>2023-10-24T08:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:06:31+00:00</t>
+    <t>2023-10-24T08:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:15:22+00:00</t>
+    <t>2023-10-26T14:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T14:31:05+00:00</t>
+    <t>2023-11-02T12:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:47:44+00:00</t>
+    <t>2023-11-06T08:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:27:10+00:00</t>
+    <t>2023-12-23T14:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1555,7 +1555,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-group)
 </t>
   </si>
   <si>
@@ -1654,7 +1654,7 @@
     <t>ResearchStudy.site</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-location)
 </t>
   </si>
   <si>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-23T14:24:05+00:00</t>
+    <t>2024-01-11T09:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T09:08:43+00:00</t>
+    <t>2024-01-11T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1475,7 +1475,7 @@
 </t>
   </si>
   <si>
-    <t>References and dependencies</t>
+    <t>Publications et résumé des résultats / Publications about the study and Summary results</t>
   </si>
   <si>
     <t>Citations, references and other related documents.</t>
@@ -10341,7 +10341,7 @@
         <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>80</v>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T11:17:12+00:00</t>
+    <t>2024-01-15T10:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T10:25:07+00:00</t>
+    <t>2024-01-15T15:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:13:31+00:00</t>
+    <t>2024-01-15T15:15:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:15:33+00:00</t>
+    <t>2024-01-22T13:46:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1606,6 +1606,65 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1
+per-1</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period.end</t>
+  </si>
+  <si>
+    <t>Date à laquelle l'essai se termine (la date initiale est prévisionnelle) / Completion date</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
@@ -2172,7 +2231,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO93"/>
+  <dimension ref="A1:AO97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11043,26 +11102,24 @@
         <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>195</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11111,7 +11168,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>513</v>
+        <v>197</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11120,44 +11177,44 @@
         <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>517</v>
+        <v>111</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>519</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11166,19 +11223,19 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>521</v>
+        <v>138</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>522</v>
+        <v>139</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>523</v>
+        <v>200</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11216,54 +11273,54 @@
         <v>80</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>520</v>
+        <v>201</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>525</v>
+        <v>104</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>519</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11274,10 +11331,10 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
@@ -11286,16 +11343,16 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>287</v>
+        <v>519</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11345,42 +11402,42 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>102</v>
+        <v>521</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>533</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11394,7 +11451,7 @@
         <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
@@ -11403,22 +11460,24 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>216</v>
+        <v>516</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>310</v>
+        <v>527</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="R79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11438,13 +11497,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>537</v>
+        <v>80</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>538</v>
+        <v>80</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -11462,7 +11521,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11471,33 +11530,33 @@
         <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>102</v>
+        <v>521</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>314</v>
+        <v>530</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>315</v>
+        <v>531</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11508,28 +11567,28 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>543</v>
+        <v>257</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>546</v>
+        <v>287</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11579,42 +11638,42 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11625,7 +11684,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11634,18 +11693,20 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11694,42 +11755,42 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>111</v>
+        <v>544</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11740,27 +11801,29 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>194</v>
+        <v>547</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>195</v>
+        <v>548</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -11809,53 +11872,53 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>197</v>
+        <v>546</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>111</v>
+        <v>544</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>80</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -11864,19 +11927,19 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>139</v>
+        <v>554</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>200</v>
+        <v>555</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11902,70 +11965,70 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>201</v>
+        <v>553</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11978,26 +12041,24 @@
         <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>138</v>
+        <v>562</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12057,16 +12118,16 @@
         <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>104</v>
+        <v>567</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
@@ -12077,10 +12138,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12088,10 +12149,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12103,17 +12164,15 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>194</v>
+        <v>569</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12162,13 +12221,13 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>102</v>
@@ -12177,7 +12236,7 @@
         <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
@@ -12186,7 +12245,7 @@
         <v>111</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12194,10 +12253,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12220,17 +12279,15 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>568</v>
+        <v>195</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12279,7 +12336,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>567</v>
+        <v>197</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12288,22 +12345,22 @@
         <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>570</v>
+        <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>571</v>
+        <v>80</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12311,21 +12368,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12337,16 +12394,16 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>573</v>
+        <v>139</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>574</v>
+        <v>200</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12384,43 +12441,43 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>572</v>
+        <v>201</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12428,14 +12485,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>80</v>
+        <v>577</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12448,13 +12505,13 @@
         <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>550</v>
+        <v>138</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>578</v>
@@ -12462,8 +12519,12 @@
       <c r="M88" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12511,7 +12572,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12523,16 +12584,16 @@
         <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12554,7 +12615,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>90</v>
@@ -12572,12 +12633,14 @@
         <v>194</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>195</v>
+        <v>582</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12626,22 +12689,22 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>197</v>
+        <v>581</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -12650,7 +12713,7 @@
         <v>111</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -12658,21 +12721,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12684,16 +12747,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>139</v>
+        <v>587</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>200</v>
+        <v>588</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12731,43 +12794,43 @@
         <v>80</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>201</v>
+        <v>586</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -12775,46 +12838,44 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12862,31 +12923,31 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>595</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -12894,10 +12955,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12908,7 +12969,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -12920,17 +12981,15 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>194</v>
+        <v>569</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -12979,13 +13038,13 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
@@ -12994,7 +13053,7 @@
         <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
@@ -13011,10 +13070,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13037,17 +13096,15 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>589</v>
+        <v>195</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13072,13 +13129,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>591</v>
+        <v>80</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>592</v>
+        <v>80</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13096,7 +13153,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>588</v>
+        <v>197</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13105,29 +13162,499 @@
         <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ93" t="s" s="2">
+      <c r="AJ94" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK93" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AL93" t="s" s="2">
+      <c r="AK96" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AL97" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AM97" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO93" t="s" s="2">
+      <c r="AN97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO97" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO93">
+  <autoFilter ref="A1:AO97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13137,7 +13664,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="636">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T13:46:22+00:00</t>
+    <t>2024-01-24T10:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -541,6 +541,96 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t>eclaire-description-summary-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary}
+</t>
+  </si>
+  <si>
+    <t>Texte bref décrivant l'essai / Brief text explaining the study.</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
   </si>
   <si>
@@ -551,7 +641,7 @@
 </t>
   </si>
   <si>
-    <t>autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
+    <t>Autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
   </si>
   <si>
     <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
@@ -626,19 +716,6 @@
     <t>ResearchStudy.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>ResearchStudy.identifier:idPrimary.extension</t>
   </si>
   <si>
@@ -646,9 +723,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ResearchStudy.identifier:idPrimary.use</t>
@@ -1527,10 +1601,6 @@
   </si>
   <si>
     <t>ResearchStudy.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
   </si>
   <si>
     <t>Résumé de l'essai / Summary Results</t>
@@ -2231,7 +2301,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO97"/>
+  <dimension ref="A1:AO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2240,9 +2310,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.55078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.16796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="29.953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3827,7 +3897,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>91</v>
@@ -3917,7 +3987,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3931,43 +4001,39 @@
         <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -4003,31 +4069,31 @@
         <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4036,7 +4102,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -4047,10 +4113,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4061,7 +4127,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -4070,21 +4136,19 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -4120,10 +4184,10 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
@@ -4132,7 +4196,7 @@
         <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4144,72 +4208,70 @@
         <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>80</v>
@@ -4251,42 +4313,42 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4294,7 +4356,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -4309,13 +4371,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4366,7 +4428,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4375,10 +4437,10 @@
         <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4387,7 +4449,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4398,14 +4460,16 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4415,7 +4479,7 @@
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -4424,17 +4488,15 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4471,19 +4533,19 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4504,7 +4566,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4515,21 +4577,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4538,22 +4600,22 @@
         <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4563,7 +4625,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -4578,52 +4640,52 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4634,10 +4696,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4648,7 +4710,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4660,19 +4722,17 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4697,37 +4757,37 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>102</v>
@@ -4736,29 +4796,31 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4770,7 +4832,7 @@
         <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
@@ -4779,19 +4841,17 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4804,7 +4864,7 @@
         <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>80</v>
@@ -4840,13 +4900,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>102</v>
@@ -4855,27 +4915,27 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4895,20 +4955,18 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4921,7 +4979,7 @@
         <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>80</v>
@@ -4957,7 +5015,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4966,19 +5024,19 @@
         <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4989,21 +5047,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -5012,19 +5070,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5062,40 +5120,40 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5106,10 +5164,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5117,7 +5175,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -5126,24 +5184,26 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5152,7 +5212,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>80</v>
@@ -5167,13 +5227,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5191,7 +5251,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5203,16 +5263,16 @@
         <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5223,14 +5283,12 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5239,10 +5297,10 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
@@ -5251,17 +5309,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5286,13 +5346,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5310,13 +5370,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>102</v>
@@ -5325,27 +5385,27 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5365,19 +5425,23 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5389,7 +5453,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -5425,7 +5489,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5434,19 +5498,19 @@
         <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5457,21 +5521,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5480,19 +5544,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5506,7 +5570,7 @@
         <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>80</v>
@@ -5530,40 +5594,40 @@
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5574,10 +5638,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5585,7 +5649,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
@@ -5594,26 +5658,24 @@
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5622,7 +5684,7 @@
         <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>80</v>
@@ -5637,13 +5699,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5661,7 +5723,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5673,16 +5735,16 @@
         <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5693,10 +5755,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5719,20 +5781,18 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5756,13 +5816,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5780,7 +5840,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5792,16 +5852,16 @@
         <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5812,12 +5872,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5826,10 +5888,10 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5838,19 +5900,17 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5863,7 +5923,7 @@
         <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>80</v>
@@ -5899,13 +5959,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>102</v>
@@ -5914,27 +5974,27 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5954,20 +6014,18 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5980,7 +6038,7 @@
         <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>80</v>
@@ -6016,7 +6074,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6025,19 +6083,19 @@
         <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6048,21 +6106,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6071,19 +6129,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6121,40 +6179,40 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6165,10 +6223,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6176,7 +6234,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -6185,24 +6243,26 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6211,7 +6271,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -6226,13 +6286,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6250,7 +6310,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6262,16 +6322,16 @@
         <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6282,10 +6342,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6299,7 +6359,7 @@
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -6308,18 +6368,20 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6343,13 +6405,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -6367,7 +6429,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6382,16 +6444,16 @@
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6399,10 +6461,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6413,7 +6475,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6425,18 +6487,20 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6448,7 +6512,7 @@
         <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>80</v>
@@ -6484,31 +6548,31 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6516,21 +6580,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6542,20 +6606,18 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6567,7 +6629,7 @@
         <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>80</v>
@@ -6603,28 +6665,28 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6638,7 +6700,7 @@
         <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6646,31 +6708,31 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6696,13 +6758,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6720,10 +6782,10 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>90</v>
@@ -6732,30 +6794,30 @@
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6778,16 +6840,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6813,13 +6875,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6837,7 +6899,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6849,16 +6911,16 @@
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6869,10 +6931,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6895,16 +6957,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6930,11 +6992,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6952,7 +7016,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6967,16 +7031,16 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6984,10 +7048,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7001,7 +7065,7 @@
         <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>80</v>
@@ -7010,16 +7074,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7045,11 +7109,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7067,7 +7133,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7079,19 +7145,19 @@
         <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7099,14 +7165,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7125,18 +7191,20 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7160,10 +7228,10 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -7184,7 +7252,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7196,30 +7264,30 @@
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7227,31 +7295,31 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7277,13 +7345,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7292,22 +7360,22 @@
         <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>102</v>
@@ -7316,31 +7384,29 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7349,10 +7415,10 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7361,16 +7427,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7396,37 +7462,37 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>102</v>
@@ -7435,27 +7501,27 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7469,24 +7535,26 @@
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>195</v>
+        <v>341</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7496,7 +7564,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7511,13 +7579,11 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7535,7 +7601,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7544,22 +7610,22 @@
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7567,14 +7633,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7584,25 +7650,25 @@
         <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>347</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7628,31 +7694,29 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7664,19 +7728,19 @@
         <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7687,7 +7751,7 @@
         <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7710,20 +7774,18 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7747,10 +7809,10 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7771,7 +7833,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7786,27 +7848,27 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7817,27 +7879,29 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>195</v>
+        <v>361</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7862,13 +7926,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7877,55 +7941,57 @@
         <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>197</v>
+        <v>360</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="D49" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7935,25 +8001,25 @@
         <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>139</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7979,31 +8045,31 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8015,30 +8081,30 @@
         <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8058,23 +8124,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>175</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8083,7 +8145,7 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>80</v>
@@ -8122,7 +8184,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>373</v>
+        <v>177</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8131,19 +8193,19 @@
         <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8154,21 +8216,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -8177,19 +8239,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>139</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>379</v>
+        <v>225</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>380</v>
+        <v>141</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8227,40 +8289,40 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>381</v>
+        <v>182</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>383</v>
+        <v>104</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8271,10 +8333,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8285,7 +8347,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8297,19 +8359,19 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>113</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>280</v>
+        <v>381</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8358,13 +8420,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>102</v>
@@ -8376,10 +8438,10 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8390,10 +8452,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8413,23 +8475,19 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>175</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8477,7 +8535,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>397</v>
+        <v>177</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8486,19 +8544,19 @@
         <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>399</v>
+        <v>111</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8509,21 +8567,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8532,23 +8590,21 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>139</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>225</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8584,40 +8640,40 @@
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>182</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8628,10 +8684,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8654,19 +8710,19 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8676,7 +8732,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>80</v>
@@ -8715,7 +8771,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8733,10 +8789,10 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8747,14 +8803,12 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8763,10 +8817,10 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8775,16 +8829,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>310</v>
+        <v>404</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8810,13 +8864,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8834,13 +8888,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>336</v>
+        <v>405</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>102</v>
@@ -8849,27 +8903,27 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>314</v>
+        <v>406</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>315</v>
+        <v>407</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8889,19 +8943,23 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>195</v>
+        <v>410</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8910,7 +8968,7 @@
         <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>80</v>
@@ -8949,7 +9007,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>197</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8958,19 +9016,19 @@
         <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>111</v>
+        <v>415</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8981,21 +9039,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9004,21 +9062,23 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>139</v>
+        <v>418</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>200</v>
+        <v>419</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9054,40 +9114,40 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>201</v>
+        <v>421</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>104</v>
+        <v>423</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9098,10 +9158,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9112,7 +9172,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9124,19 +9184,19 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>355</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>356</v>
+        <v>428</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>358</v>
+        <v>430</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9185,13 +9245,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>359</v>
+        <v>431</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>102</v>
@@ -9203,10 +9263,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9217,10 +9277,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9228,7 +9288,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>90</v>
@@ -9243,19 +9303,19 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9304,7 +9364,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9322,10 +9382,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9336,12 +9396,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9362,15 +9424,17 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>428</v>
+        <v>240</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9395,13 +9459,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9419,7 +9483,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>427</v>
+        <v>360</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9434,27 +9498,27 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9477,13 +9541,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9495,7 +9559,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9534,7 +9598,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9566,10 +9630,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>375</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9598,7 +9662,7 @@
         <v>139</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>141</v>
@@ -9651,7 +9715,7 @@
         <v>144</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9683,14 +9747,12 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9699,28 +9761,32 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K64" t="s" s="2">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>379</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9768,7 +9834,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>201</v>
+        <v>383</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9780,16 +9846,16 @@
         <v>102</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9800,44 +9866,46 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K65" t="s" s="2">
-        <v>442</v>
+        <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9885,28 +9953,28 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>201</v>
+        <v>440</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9917,14 +9985,12 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9933,7 +9999,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>91</v>
@@ -9942,16 +10008,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10002,7 +10068,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10014,19 +10080,19 @@
         <v>102</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10034,14 +10100,12 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10062,13 +10126,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>452</v>
+        <v>174</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>454</v>
+        <v>176</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10119,19 +10183,19 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10140,7 +10204,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10151,21 +10215,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10174,19 +10238,19 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>456</v>
+        <v>139</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>457</v>
+        <v>225</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>458</v>
+        <v>141</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10224,31 +10288,31 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>459</v>
+        <v>182</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10257,7 +10321,7 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10268,12 +10332,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10282,16 +10348,16 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>461</v>
@@ -10351,7 +10417,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>464</v>
+        <v>182</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10363,16 +10429,16 @@
         <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>465</v>
+        <v>146</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10383,12 +10449,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10397,7 +10465,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>91</v>
@@ -10409,17 +10477,15 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10468,7 +10534,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>182</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10480,19 +10546,19 @@
         <v>102</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10500,12 +10566,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10514,29 +10582,27 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>216</v>
+        <v>471</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10561,10 +10627,10 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>80</v>
@@ -10585,7 +10651,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>475</v>
+        <v>182</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10597,19 +10663,19 @@
         <v>102</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10617,12 +10683,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10631,29 +10699,27 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>216</v>
+        <v>476</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10678,13 +10744,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10702,7 +10768,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>481</v>
+        <v>182</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10714,16 +10780,16 @@
         <v>102</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10734,10 +10800,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10751,25 +10817,25 @@
         <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K73" t="s" s="2">
-        <v>488</v>
+        <v>174</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10819,7 +10885,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10834,7 +10900,7 @@
         <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>492</v>
+        <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10843,7 +10909,7 @@
         <v>111</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10851,14 +10917,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10868,7 +10934,7 @@
         <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
@@ -10877,17 +10943,15 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10936,7 +11000,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10948,62 +11012,62 @@
         <v>102</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>262</v>
+        <v>489</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>505</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>247</v>
+        <v>493</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>250</v>
+        <v>496</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11053,42 +11117,42 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>510</v>
+        <v>111</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>512</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11099,7 +11163,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -11108,18 +11172,20 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>195</v>
+        <v>500</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11144,10 +11210,10 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -11168,31 +11234,31 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>197</v>
+        <v>499</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>80</v>
+        <v>503</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11200,14 +11266,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11217,25 +11283,25 @@
         <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>139</v>
+        <v>506</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11261,31 +11327,31 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>201</v>
+        <v>505</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11297,16 +11363,16 @@
         <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11317,10 +11383,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11334,25 +11400,25 @@
         <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>516</v>
+        <v>192</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11402,7 +11468,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11411,22 +11477,22 @@
         <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>521</v>
+        <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>523</v>
+        <v>111</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11434,21 +11500,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>91</v>
@@ -11460,24 +11526,22 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q79" t="s" s="2">
-        <v>528</v>
-      </c>
+      <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11521,46 +11585,46 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>521</v>
+        <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11570,7 +11634,7 @@
         <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>80</v>
@@ -11579,16 +11643,16 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11638,7 +11702,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11650,30 +11714,30 @@
         <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11693,20 +11757,18 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>540</v>
+        <v>174</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>541</v>
+        <v>175</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11755,7 +11817,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>539</v>
+        <v>177</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11764,37 +11826,37 @@
         <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>543</v>
+        <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>544</v>
+        <v>111</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>545</v>
+        <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>538</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11804,25 +11866,25 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>547</v>
+        <v>138</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>548</v>
+        <v>139</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>549</v>
+        <v>225</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11860,19 +11922,19 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>546</v>
+        <v>182</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11884,30 +11946,30 @@
         <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>544</v>
+        <v>104</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>551</v>
+        <v>80</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>552</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11930,16 +11992,16 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>216</v>
+        <v>539</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>310</v>
+        <v>542</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11965,13 +12027,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>556</v>
+        <v>80</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -11989,7 +12051,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11998,33 +12060,33 @@
         <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>314</v>
+        <v>545</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>315</v>
+        <v>546</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>559</v>
+        <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12035,34 +12097,36 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="R84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12106,28 +12170,28 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>566</v>
+        <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>104</v>
+        <v>553</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
@@ -12138,10 +12202,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12152,27 +12216,29 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>569</v>
+        <v>281</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12221,42 +12287,42 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>111</v>
+        <v>559</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12276,18 +12342,20 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>194</v>
+        <v>563</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>195</v>
+        <v>564</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12336,7 +12404,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>197</v>
+        <v>562</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12345,37 +12413,37 @@
         <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>111</v>
+        <v>567</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>80</v>
+        <v>568</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12385,25 +12453,25 @@
         <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>138</v>
+        <v>570</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>139</v>
+        <v>571</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>200</v>
+        <v>572</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>141</v>
+        <v>311</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12441,19 +12509,19 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>201</v>
+        <v>569</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12465,22 +12533,22 @@
         <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>104</v>
+        <v>567</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>80</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88" hidden="true">
@@ -12492,39 +12560,37 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>577</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="N88" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12548,13 +12614,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>80</v>
+        <v>579</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -12572,42 +12638,42 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>80</v>
+        <v>582</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>80</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12615,10 +12681,10 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12630,16 +12696,16 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>194</v>
+        <v>585</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>280</v>
+        <v>588</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12689,13 +12755,13 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>102</v>
@@ -12704,16 +12770,16 @@
         <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>111</v>
+        <v>590</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>585</v>
+        <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -12721,10 +12787,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12735,7 +12801,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12747,17 +12813,15 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>216</v>
+        <v>592</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12806,13 +12870,13 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>102</v>
@@ -12821,16 +12885,16 @@
         <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -12838,10 +12902,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12864,17 +12928,15 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>592</v>
+        <v>175</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12923,7 +12985,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>591</v>
+        <v>177</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12932,13 +12994,13 @@
         <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>594</v>
+        <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
@@ -12947,7 +13009,7 @@
         <v>111</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -12955,14 +13017,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12981,15 +13043,17 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>569</v>
+        <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>597</v>
+        <v>139</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13026,19 +13090,19 @@
         <v>80</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>596</v>
+        <v>182</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13050,16 +13114,16 @@
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>599</v>
+        <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>80</v>
@@ -13070,42 +13134,46 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>195</v>
+        <v>601</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13153,19 +13221,19 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>197</v>
+        <v>603</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
@@ -13174,7 +13242,7 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
@@ -13185,21 +13253,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -13211,16 +13279,16 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>139</v>
+        <v>605</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>200</v>
+        <v>606</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>141</v>
+        <v>304</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13258,43 +13326,43 @@
         <v>80</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>201</v>
+        <v>604</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>80</v>
+        <v>607</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13302,46 +13370,44 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>577</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13389,31 +13455,31 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>80</v>
+        <v>612</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>613</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13421,10 +13487,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13447,16 +13513,16 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13506,7 +13572,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13521,7 +13587,7 @@
         <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
@@ -13530,7 +13596,7 @@
         <v>111</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13538,10 +13604,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13552,7 +13618,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -13564,17 +13630,15 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>216</v>
+        <v>592</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -13599,13 +13663,13 @@
         <v>80</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>610</v>
+        <v>80</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>611</v>
+        <v>80</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>80</v>
@@ -13623,13 +13687,13 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>102</v>
@@ -13638,23 +13702,608 @@
         <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO97" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO102" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO97">
+  <autoFilter ref="A1:AO102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13664,7 +14313,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI96">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$106</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="646">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T10:06:27+00:00</t>
+    <t>2024-01-24T12:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -888,6 +888,77 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
+    <t>ResearchStudy.identifier:idPrimary.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.start</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date d'inscription au registre principal / Date of Registration in Primary Registry</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1
+per-1</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.end</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
     <t>ResearchStudy.identifier:idPrimary.assigner</t>
   </si>
   <si>
@@ -1687,54 +1758,13 @@
     <t>ResearchStudy.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
     <t>Starting time with inclusive boundary</t>
   </si>
   <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t>ele-1
-per-1</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>./low</t>
-  </si>
-  <si>
     <t>ResearchStudy.period.end</t>
   </si>
   <si>
     <t>Date à laquelle l'essai se termine (la date initiale est prévisionnelle) / Completion date</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>DR.2</t>
-  </si>
-  <si>
-    <t>./high</t>
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
@@ -2301,7 +2331,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO102"/>
+  <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5778,20 +5808,18 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5840,7 +5868,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5849,19 +5877,19 @@
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>111</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5872,16 +5900,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5891,27 +5917,27 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>139</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5947,19 +5973,19 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5971,30 +5997,30 @@
         <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6014,18 +6040,20 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>175</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6074,7 +6102,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6083,19 +6111,19 @@
         <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6109,18 +6137,18 @@
         <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6129,25 +6157,27 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6179,40 +6209,40 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6223,10 +6253,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6234,7 +6264,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -6243,26 +6273,24 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6271,7 +6299,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -6286,13 +6314,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6310,7 +6338,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6322,16 +6350,16 @@
         <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6342,12 +6370,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6356,10 +6386,10 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -6368,19 +6398,17 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6405,13 +6433,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -6429,13 +6457,13 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>102</v>
@@ -6444,27 +6472,27 @@
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6484,23 +6512,19 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6512,7 +6536,7 @@
         <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>80</v>
@@ -6548,7 +6572,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6557,19 +6581,19 @@
         <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6580,21 +6604,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6603,19 +6627,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6629,7 +6653,7 @@
         <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>80</v>
@@ -6653,40 +6677,40 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6697,10 +6721,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6708,7 +6732,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
@@ -6717,24 +6741,26 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6743,7 +6769,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6758,13 +6784,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6782,7 +6808,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6794,16 +6820,16 @@
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>277</v>
+        <v>104</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6814,10 +6840,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6840,18 +6866,20 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6875,13 +6903,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6899,7 +6927,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6911,16 +6939,16 @@
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6931,10 +6959,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6948,7 +6976,7 @@
         <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6957,18 +6985,20 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6980,7 +7010,7 @@
         <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>80</v>
@@ -7016,7 +7046,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7031,16 +7061,16 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7048,10 +7078,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7062,7 +7092,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -7074,16 +7104,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>308</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7097,7 +7127,7 @@
         <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>80</v>
@@ -7133,31 +7163,31 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7165,21 +7195,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -7191,20 +7221,18 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7252,28 +7280,28 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7287,7 +7315,7 @@
         <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7295,31 +7323,31 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7345,13 +7373,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7369,10 +7397,10 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>90</v>
@@ -7381,30 +7409,30 @@
         <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7418,7 +7446,7 @@
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7427,16 +7455,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7462,13 +7490,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7486,7 +7514,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7501,16 +7529,16 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7518,10 +7546,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7532,10 +7560,10 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7544,13 +7572,13 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>334</v>
@@ -7579,11 +7607,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7601,31 +7631,31 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7633,14 +7663,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7650,7 +7680,7 @@
         <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7659,18 +7689,20 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7694,11 +7726,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7716,7 +7750,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7728,19 +7762,19 @@
         <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7748,10 +7782,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7759,31 +7793,31 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7809,13 +7843,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7833,13 +7867,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>102</v>
@@ -7848,27 +7882,27 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7879,10 +7913,10 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -7894,13 +7928,13 @@
         <v>240</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7926,13 +7960,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7941,22 +7975,22 @@
         <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>102</v>
@@ -7965,31 +7999,29 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7998,7 +8030,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>91</v>
@@ -8013,13 +8045,13 @@
         <v>240</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8045,37 +8077,35 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="Y49" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y49" s="2"/>
+      <c r="Z49" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>102</v>
@@ -8084,27 +8114,27 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8115,27 +8145,29 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8145,70 +8177,68 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="T50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>111</v>
+        <v>362</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8216,14 +8246,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>375</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8239,19 +8269,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>139</v>
+        <v>376</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>225</v>
+        <v>377</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8277,10 +8307,10 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -8289,19 +8319,19 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8313,30 +8343,30 @@
         <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8350,7 +8380,7 @@
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8359,20 +8389,18 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>240</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8396,13 +8424,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8411,13 +8439,13 @@
         <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>383</v>
@@ -8435,29 +8463,31 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8466,27 +8496,29 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>175</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8511,13 +8543,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8535,53 +8567,53 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>111</v>
+        <v>362</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8593,17 +8625,15 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8613,7 +8643,7 @@
         <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>80</v>
@@ -8640,31 +8670,31 @@
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8673,7 +8703,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8684,21 +8714,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8707,23 +8737,21 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>139</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
+        <v>225</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8732,7 +8760,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>80</v>
@@ -8759,40 +8787,40 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>182</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>399</v>
+        <v>104</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8803,10 +8831,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8817,7 +8845,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8829,7 +8857,7 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>174</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>402</v>
@@ -8840,7 +8868,9 @@
       <c r="N56" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8888,13 +8918,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>102</v>
@@ -8906,10 +8936,10 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8920,10 +8950,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8943,23 +8973,19 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>410</v>
+        <v>175</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9007,7 +9033,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>177</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9016,19 +9042,19 @@
         <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>415</v>
+        <v>111</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9039,21 +9065,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9062,23 +9088,21 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>139</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>419</v>
+        <v>225</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9114,40 +9138,40 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>182</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>423</v>
+        <v>104</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9158,10 +9182,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9184,19 +9208,19 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9206,7 +9230,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -9245,7 +9269,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9263,10 +9287,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9277,10 +9301,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9306,17 +9330,15 @@
         <v>174</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9364,7 +9386,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9382,10 +9404,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9396,14 +9418,12 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9412,10 +9432,10 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9424,18 +9444,20 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>362</v>
+        <v>434</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9459,13 +9481,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9483,13 +9505,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>102</v>
@@ -9498,27 +9520,27 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>338</v>
+        <v>437</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9538,19 +9560,23 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>175</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9559,7 +9585,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9598,7 +9624,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>177</v>
+        <v>444</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9607,19 +9633,19 @@
         <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>111</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9630,21 +9656,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9653,21 +9679,23 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>139</v>
+        <v>450</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>225</v>
+        <v>451</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9703,40 +9731,40 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>182</v>
+        <v>454</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>104</v>
+        <v>456</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9747,10 +9775,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>377</v>
+        <v>458</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9761,7 +9789,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9773,19 +9801,19 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>381</v>
+        <v>461</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>382</v>
+        <v>462</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9834,13 +9862,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>383</v>
+        <v>463</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>102</v>
@@ -9852,10 +9880,10 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>384</v>
+        <v>464</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>385</v>
+        <v>465</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9866,24 +9894,26 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -9892,20 +9922,18 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9929,13 +9957,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9953,13 +9981,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>102</v>
@@ -9968,27 +9996,27 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>441</v>
+        <v>361</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>442</v>
+        <v>362</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9999,25 +10027,25 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>452</v>
+        <v>174</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>454</v>
+        <v>176</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10029,7 +10057,7 @@
         <v>80</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>80</v>
@@ -10068,22 +10096,22 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>451</v>
+        <v>177</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -10092,7 +10120,7 @@
         <v>111</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10100,21 +10128,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>398</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10126,15 +10154,17 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10171,31 +10201,31 @@
         <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10204,7 +10234,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10215,14 +10245,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10238,21 +10268,23 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>138</v>
+        <v>401</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>139</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10288,19 +10320,19 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>182</v>
+        <v>406</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10312,16 +10344,16 @@
         <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10332,44 +10364,46 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>460</v>
-      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K69" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10417,28 +10451,28 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>182</v>
+        <v>463</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10449,14 +10483,12 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10465,7 +10497,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>91</v>
@@ -10474,16 +10506,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10534,7 +10566,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>182</v>
+        <v>474</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10546,19 +10578,19 @@
         <v>102</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10566,14 +10598,12 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10585,7 +10615,7 @@
         <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -10594,13 +10624,13 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>471</v>
+        <v>174</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>472</v>
+        <v>175</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>473</v>
+        <v>176</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10651,19 +10681,19 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -10672,7 +10702,7 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10683,23 +10713,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10711,15 +10739,17 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>476</v>
+        <v>138</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>139</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10756,16 +10786,16 @@
         <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>182</v>
@@ -10789,7 +10819,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10800,12 +10830,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10817,26 +10849,24 @@
         <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>174</v>
+        <v>484</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10885,19 +10915,19 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>483</v>
+        <v>182</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -10906,7 +10936,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10917,12 +10947,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10931,25 +10963,25 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11000,7 +11032,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>488</v>
+        <v>182</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11012,16 +11044,16 @@
         <v>102</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>489</v>
+        <v>146</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11035,9 +11067,11 @@
         <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11046,7 +11080,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>91</v>
@@ -11058,17 +11092,15 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N75" t="s" s="2">
         <v>496</v>
       </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11117,7 +11149,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>492</v>
+        <v>182</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11129,19 +11161,19 @@
         <v>102</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11149,12 +11181,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11163,7 +11197,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -11172,10 +11206,10 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>240</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>500</v>
@@ -11183,9 +11217,7 @@
       <c r="M76" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11210,10 +11242,10 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -11234,7 +11266,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>499</v>
+        <v>182</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11246,19 +11278,19 @@
         <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11266,10 +11298,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11280,10 +11312,10 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>80</v>
@@ -11292,16 +11324,16 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>334</v>
+        <v>505</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11327,13 +11359,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11351,13 +11383,13 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>102</v>
@@ -11366,13 +11398,13 @@
         <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11383,10 +11415,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11397,29 +11429,27 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K78" t="s" s="2">
-        <v>192</v>
+        <v>508</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11474,25 +11504,25 @@
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>80</v>
+        <v>513</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>111</v>
+        <v>514</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11500,14 +11530,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11523,19 +11553,19 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11585,7 +11615,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11597,41 +11627,41 @@
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>524</v>
+        <v>111</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11643,16 +11673,16 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11678,10 +11708,10 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>80</v>
@@ -11702,42 +11732,42 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>532</v>
+        <v>361</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>533</v>
+        <v>362</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11748,27 +11778,29 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>175</v>
+        <v>529</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11793,13 +11825,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11817,28 +11849,28 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>177</v>
+        <v>528</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>111</v>
+        <v>362</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>80</v>
@@ -11849,24 +11881,24 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
@@ -11875,16 +11907,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>139</v>
+        <v>535</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>225</v>
+        <v>536</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>141</v>
+        <v>537</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11922,43 +11954,43 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>182</v>
+        <v>534</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11966,24 +11998,24 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>80</v>
+        <v>541</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>80</v>
@@ -11992,16 +12024,16 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12051,46 +12083,46 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>544</v>
+        <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>545</v>
+        <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>80</v>
+        <v>549</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12100,7 +12132,7 @@
         <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>80</v>
@@ -12109,24 +12141,22 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>539</v>
+        <v>271</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>550</v>
+        <v>274</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q84" t="s" s="2">
-        <v>551</v>
-      </c>
+      <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12170,7 +12200,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12179,33 +12209,33 @@
         <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>544</v>
+        <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12219,26 +12249,24 @@
         <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>556</v>
+        <v>175</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12287,7 +12315,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>555</v>
+        <v>177</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12296,44 +12324,44 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>559</v>
+        <v>111</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12342,19 +12370,19 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>563</v>
+        <v>138</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
+        <v>139</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>565</v>
+        <v>225</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12392,54 +12420,54 @@
         <v>80</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>562</v>
+        <v>182</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>566</v>
+        <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>567</v>
+        <v>104</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12450,10 +12478,10 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>80</v>
@@ -12462,16 +12490,16 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>570</v>
+        <v>285</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>572</v>
+        <v>287</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12521,42 +12549,42 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>569</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>573</v>
+        <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>567</v>
+        <v>292</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>574</v>
+        <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12570,7 +12598,7 @@
         <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>80</v>
@@ -12579,22 +12607,24 @@
         <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>578</v>
+        <v>296</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="R88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12614,13 +12644,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>579</v>
+        <v>80</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -12638,7 +12668,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>576</v>
+        <v>299</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12647,33 +12677,33 @@
         <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>582</v>
+        <v>80</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>583</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12684,28 +12714,28 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>585</v>
+        <v>304</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>588</v>
+        <v>334</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12755,42 +12785,42 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12801,7 +12831,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12810,18 +12840,20 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12870,42 +12902,42 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>111</v>
+        <v>577</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12916,27 +12948,29 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>174</v>
+        <v>580</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>175</v>
+        <v>581</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12985,53 +13019,53 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>177</v>
+        <v>579</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>583</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>111</v>
+        <v>577</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13040,19 +13074,19 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>139</v>
+        <v>587</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>225</v>
+        <v>588</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13078,70 +13112,70 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>182</v>
+        <v>586</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>80</v>
+        <v>591</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>80</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13154,26 +13188,24 @@
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>138</v>
+        <v>595</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13221,7 +13253,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13233,16 +13265,16 @@
         <v>102</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>104</v>
+        <v>600</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
@@ -13253,10 +13285,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13264,10 +13296,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -13279,17 +13311,15 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>174</v>
+        <v>602</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13338,13 +13368,13 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>102</v>
@@ -13353,7 +13383,7 @@
         <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
@@ -13362,7 +13392,7 @@
         <v>111</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13370,10 +13400,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13396,17 +13426,15 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>610</v>
+        <v>175</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13455,7 +13483,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>609</v>
+        <v>177</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13464,22 +13492,22 @@
         <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>612</v>
+        <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>339</v>
+        <v>111</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>613</v>
+        <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13487,21 +13515,21 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13513,16 +13541,16 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>615</v>
+        <v>139</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>616</v>
+        <v>225</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13560,43 +13588,43 @@
         <v>80</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>614</v>
+        <v>182</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>617</v>
+        <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13604,14 +13632,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>80</v>
+        <v>610</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13624,22 +13652,26 @@
         <v>80</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>592</v>
+        <v>138</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>80</v>
       </c>
@@ -13687,7 +13719,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13699,16 +13731,16 @@
         <v>102</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
@@ -13719,10 +13751,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13730,7 +13762,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>90</v>
@@ -13748,12 +13780,14 @@
         <v>174</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>175</v>
+        <v>615</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13802,22 +13836,22 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>177</v>
+        <v>614</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>80</v>
+        <v>617</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>80</v>
@@ -13826,7 +13860,7 @@
         <v>111</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>80</v>
+        <v>618</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -13834,21 +13868,21 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -13860,16 +13894,16 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>139</v>
+        <v>620</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>225</v>
+        <v>621</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13907,43 +13941,43 @@
         <v>80</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>182</v>
+        <v>619</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>80</v>
+        <v>622</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>80</v>
+        <v>623</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -13951,46 +13985,44 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>80</v>
       </c>
@@ -14038,31 +14070,31 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>80</v>
+        <v>628</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14070,10 +14102,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14084,7 +14116,7 @@
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>80</v>
@@ -14096,17 +14128,15 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>174</v>
+        <v>602</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>80</v>
@@ -14155,13 +14185,13 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>102</v>
@@ -14170,7 +14200,7 @@
         <v>103</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>80</v>
@@ -14187,10 +14217,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14213,17 +14243,15 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>631</v>
+        <v>175</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14248,13 +14276,13 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>633</v>
+        <v>80</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
@@ -14272,7 +14300,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>630</v>
+        <v>177</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14281,29 +14309,499 @@
         <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ102" t="s" s="2">
+      <c r="AJ103" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK102" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO102" t="s" s="2">
+      <c r="AK105" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO106" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO102">
+  <autoFilter ref="A1:AO106">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14313,7 +14811,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI101">
+  <conditionalFormatting sqref="A2:AI105">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T12:52:29+00:00</t>
+    <t>2024-01-24T17:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$107</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="651">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T17:10:03+00:00</t>
+    <t>2024-02-12T09:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -629,6 +629,22 @@
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-outcome-measure-r5</t>
+  </si>
+  <si>
+    <t>eclaire-outcome-measure-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.outcomeMeasure}
+</t>
+  </si>
+  <si>
+    <t>Conséquences principales (primary outcomes) + Conséquences secondaires (secondary outcomes)</t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément outcomeMeasure de R5. elle permet l'ajout des conséquences principales et secondaires de l'essai</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
@@ -2331,7 +2347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO106"/>
+  <dimension ref="A1:AO107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4610,11 +4626,13 @@
         <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4624,29 +4642,25 @@
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4682,19 +4696,19 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4715,7 +4729,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4733,7 +4747,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4746,23 +4760,25 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4799,10 +4815,10 @@
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>80</v>
@@ -4811,7 +4827,7 @@
         <v>144</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4823,34 +4839,32 @@
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>104</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4859,10 +4873,10 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
@@ -4871,17 +4885,17 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4918,19 +4932,19 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4945,29 +4959,31 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4979,25 +4995,27 @@
         <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -5045,53 +5063,53 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -5103,17 +5121,15 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5150,31 +5166,31 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -5183,7 +5199,7 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5194,46 +5210,44 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5242,7 +5256,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>80</v>
@@ -5257,52 +5271,52 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5313,10 +5327,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5324,7 +5338,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -5333,25 +5347,25 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5361,7 +5375,7 @@
         <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>80</v>
@@ -5376,13 +5390,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5400,7 +5414,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5418,10 +5432,10 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5432,10 +5446,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5458,19 +5472,19 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5483,7 +5497,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -5495,13 +5509,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5519,7 +5533,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5537,10 +5551,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5551,10 +5565,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5577,18 +5591,20 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5600,7 +5616,7 @@
         <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>80</v>
@@ -5636,7 +5652,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5654,10 +5670,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5668,10 +5684,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5694,16 +5710,16 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5717,7 +5733,7 @@
         <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>80</v>
@@ -5753,7 +5769,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5765,16 +5781,16 @@
         <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5785,10 +5801,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5808,18 +5824,20 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5868,7 +5886,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5877,19 +5895,19 @@
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5900,21 +5918,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5926,17 +5944,15 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5973,31 +5989,31 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -6006,7 +6022,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6017,21 +6033,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -6040,19 +6056,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6090,40 +6106,40 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6134,10 +6150,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6160,24 +6176,22 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q33" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6221,7 +6235,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6230,7 +6244,7 @@
         <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>103</v>
@@ -6239,10 +6253,10 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6253,10 +6267,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6279,22 +6293,24 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="R34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6338,7 +6354,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6347,19 +6363,19 @@
         <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6370,14 +6386,12 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6386,10 +6400,10 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -6398,18 +6412,18 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6457,44 +6471,46 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6503,28 +6519,30 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6572,53 +6590,53 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6630,17 +6648,15 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6677,31 +6693,31 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6710,7 +6726,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6721,46 +6737,44 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6769,7 +6783,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6784,52 +6798,52 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6840,10 +6854,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6851,7 +6865,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6860,25 +6874,25 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6888,7 +6902,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6903,13 +6917,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6927,7 +6941,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6945,10 +6959,10 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6959,10 +6973,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6985,19 +6999,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7010,7 +7024,7 @@
         <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>80</v>
@@ -7022,13 +7036,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -7046,7 +7060,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7064,10 +7078,10 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -7078,10 +7092,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7104,18 +7118,20 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -7127,7 +7143,7 @@
         <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>80</v>
@@ -7163,7 +7179,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7181,10 +7197,10 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7195,10 +7211,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7221,16 +7237,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7244,7 +7260,7 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>80</v>
@@ -7280,7 +7296,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7292,16 +7308,16 @@
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>276</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7312,10 +7328,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7338,16 +7354,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7397,7 +7413,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7409,16 +7425,16 @@
         <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7429,10 +7445,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7446,7 +7462,7 @@
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7455,16 +7471,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7514,7 +7530,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7526,19 +7542,19 @@
         <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7546,10 +7562,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7560,10 +7576,10 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7572,16 +7588,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7631,31 +7647,31 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7663,14 +7679,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7689,20 +7705,18 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7750,7 +7764,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7762,19 +7776,19 @@
         <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7782,44 +7796,46 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7843,13 +7859,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7867,42 +7883,42 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7910,31 +7926,31 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7960,13 +7976,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7984,10 +8000,10 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -7999,27 +8015,27 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8033,7 +8049,7 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
@@ -8042,16 +8058,16 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8077,11 +8093,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -8099,7 +8117,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8114,16 +8132,16 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AN49" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8131,10 +8149,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8145,7 +8163,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>91</v>
@@ -8157,16 +8175,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8192,11 +8210,11 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8214,13 +8232,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>102</v>
@@ -8229,16 +8247,16 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8246,10 +8264,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8263,7 +8281,7 @@
         <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -8272,16 +8290,16 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8307,13 +8325,11 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8331,7 +8347,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8346,27 +8362,27 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8380,7 +8396,7 @@
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8389,16 +8405,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8424,13 +8440,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8439,16 +8455,16 @@
         <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8463,31 +8479,29 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8508,16 +8522,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8543,13 +8557,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8558,16 +8572,16 @@
         <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8582,29 +8596,31 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8613,27 +8629,29 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>175</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8643,7 +8661,7 @@
         <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>80</v>
@@ -8658,13 +8676,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8682,53 +8700,53 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>177</v>
+        <v>388</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8740,17 +8758,15 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8760,7 +8776,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>80</v>
@@ -8787,31 +8803,31 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
@@ -8820,7 +8836,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8831,14 +8847,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8854,23 +8870,21 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>401</v>
+        <v>138</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>139</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>403</v>
+        <v>230</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8906,19 +8920,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8930,16 +8944,16 @@
         <v>102</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>408</v>
+        <v>104</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8950,10 +8964,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8964,7 +8978,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8973,19 +8987,23 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>174</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>175</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9033,28 +9051,28 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>177</v>
+        <v>411</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>111</v>
+        <v>413</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9065,21 +9083,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9091,17 +9109,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9138,31 +9154,31 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -9171,7 +9187,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9182,21 +9198,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9205,23 +9221,21 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>415</v>
+        <v>139</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>416</v>
+        <v>230</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9230,7 +9244,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -9257,40 +9271,40 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>420</v>
+        <v>182</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>422</v>
+        <v>104</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9301,10 +9315,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9327,18 +9341,20 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9347,7 +9363,7 @@
         <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>80</v>
@@ -9386,7 +9402,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9404,10 +9420,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9418,10 +9434,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9444,20 +9460,18 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9505,7 +9519,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9523,10 +9537,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9537,10 +9551,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9563,19 +9577,19 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9624,7 +9638,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9642,10 +9656,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9656,10 +9670,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9682,19 +9696,19 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>449</v>
+        <v>174</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9743,7 +9757,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9761,10 +9775,10 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9775,10 +9789,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9801,19 +9815,19 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>174</v>
+        <v>454</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9862,7 +9876,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9880,10 +9894,10 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9894,14 +9908,12 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9910,10 +9922,10 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -9922,18 +9934,20 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>385</v>
+        <v>465</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9957,13 +9971,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9981,13 +9995,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>383</v>
+        <v>468</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>102</v>
@@ -9996,29 +10010,31 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>361</v>
+        <v>469</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10027,27 +10043,29 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>175</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10057,7 +10075,7 @@
         <v>80</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>80</v>
@@ -10072,13 +10090,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10096,53 +10114,53 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>177</v>
+        <v>388</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10154,17 +10172,15 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10174,7 +10190,7 @@
         <v>80</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>80</v>
@@ -10201,31 +10217,31 @@
         <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10234,7 +10250,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10245,14 +10261,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10268,23 +10284,21 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>401</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
+        <v>139</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
+        <v>230</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10320,19 +10334,19 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10344,16 +10358,16 @@
         <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>408</v>
+        <v>104</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10364,10 +10378,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10375,10 +10389,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10390,19 +10404,19 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>174</v>
+        <v>406</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10451,13 +10465,13 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>102</v>
@@ -10469,10 +10483,10 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10483,10 +10497,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10494,13 +10508,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>80</v>
@@ -10509,16 +10523,20 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>475</v>
+        <v>174</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10566,13 +10584,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>102</v>
@@ -10581,16 +10599,16 @@
         <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10598,10 +10616,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10612,25 +10630,25 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>175</v>
+        <v>481</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>176</v>
+        <v>482</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10681,22 +10699,22 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>177</v>
+        <v>479</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10705,7 +10723,7 @@
         <v>111</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10713,21 +10731,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10739,17 +10757,15 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10786,31 +10802,31 @@
         <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10819,7 +10835,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10830,26 +10846,24 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>80</v>
@@ -10858,15 +10872,17 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>484</v>
+        <v>138</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>485</v>
+        <v>139</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10903,16 +10919,16 @@
         <v>80</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>182</v>
@@ -10936,7 +10952,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10950,7 +10966,7 @@
         <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>488</v>
@@ -11067,7 +11083,7 @@
         <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>493</v>
@@ -11184,7 +11200,7 @@
         <v>497</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>498</v>
@@ -11200,7 +11216,7 @@
         <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>80</v>
@@ -11301,9 +11317,11 @@
         <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11321,20 +11339,18 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>174</v>
+        <v>504</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11383,19 +11399,19 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>506</v>
+        <v>182</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11404,7 +11420,7 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11429,7 +11445,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -11441,15 +11457,17 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11504,22 +11522,22 @@
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>512</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>514</v>
+        <v>111</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -11530,10 +11548,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11547,26 +11565,24 @@
         <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K79" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11615,7 +11631,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11627,19 +11643,19 @@
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>517</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>111</v>
+        <v>519</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>521</v>
+        <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11647,10 +11663,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11664,25 +11680,25 @@
         <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>240</v>
+        <v>521</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11708,10 +11724,10 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>80</v>
@@ -11732,7 +11748,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11747,16 +11763,16 @@
         <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11764,10 +11780,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11781,7 +11797,7 @@
         <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
@@ -11790,16 +11806,16 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="N81" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11825,13 +11841,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11849,7 +11865,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11864,16 +11880,16 @@
         <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11881,10 +11897,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11895,7 +11911,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>91</v>
@@ -11904,19 +11920,19 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>537</v>
+        <v>362</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11942,13 +11958,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11966,13 +11982,13 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>102</v>
@@ -11984,13 +12000,13 @@
         <v>538</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11998,21 +12014,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>91</v>
@@ -12021,19 +12037,19 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12083,56 +12099,56 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>547</v>
+        <v>111</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>549</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>80</v>
@@ -12141,16 +12157,16 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>271</v>
+        <v>547</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>274</v>
+        <v>550</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12200,46 +12216,46 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12255,18 +12271,20 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>175</v>
+        <v>557</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12315,7 +12333,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>177</v>
+        <v>555</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12324,44 +12342,44 @@
         <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>111</v>
+        <v>561</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12373,17 +12391,15 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12420,31 +12436,31 @@
         <v>80</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12453,7 +12469,7 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -12464,21 +12480,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12487,19 +12503,19 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>562</v>
+        <v>139</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12537,40 +12553,40 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>80</v>
@@ -12581,10 +12597,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12598,7 +12614,7 @@
         <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>80</v>
@@ -12607,24 +12623,22 @@
         <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q88" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12668,7 +12682,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12677,7 +12691,7 @@
         <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>103</v>
@@ -12686,10 +12700,10 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12700,10 +12714,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12726,22 +12740,24 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>567</v>
+        <v>301</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="R89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12785,7 +12801,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>565</v>
+        <v>304</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12794,33 +12810,33 @@
         <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>569</v>
+        <v>306</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>570</v>
+        <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>571</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12834,7 +12850,7 @@
         <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>80</v>
@@ -12843,16 +12859,16 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>573</v>
+        <v>309</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12902,7 +12918,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12914,30 +12930,30 @@
         <v>102</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AO90" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>571</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12948,10 +12964,10 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
@@ -12960,16 +12976,16 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>582</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13019,42 +13035,42 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AO91" t="s" s="2">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13065,10 +13081,10 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>80</v>
@@ -13077,16 +13093,16 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>240</v>
+        <v>585</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13112,13 +13128,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -13136,42 +13152,42 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>362</v>
+        <v>582</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13182,7 +13198,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -13191,19 +13207,19 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>595</v>
+        <v>245</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>598</v>
+        <v>362</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13229,13 +13245,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>80</v>
+        <v>595</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13253,13 +13269,13 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>102</v>
@@ -13268,27 +13284,27 @@
         <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>104</v>
+        <v>366</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>600</v>
+        <v>367</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>80</v>
+        <v>597</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13311,15 +13327,17 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13368,7 +13386,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13383,16 +13401,16 @@
         <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="AL94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AN94" t="s" s="2">
-        <v>606</v>
+        <v>80</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13400,10 +13418,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13414,7 +13432,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13426,13 +13444,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>174</v>
+        <v>607</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>175</v>
+        <v>608</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>176</v>
+        <v>609</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13483,22 +13501,22 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>177</v>
+        <v>606</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>80</v>
+        <v>610</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>80</v>
@@ -13507,7 +13525,7 @@
         <v>111</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>611</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13515,21 +13533,21 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13541,17 +13559,15 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13588,31 +13604,31 @@
         <v>80</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
@@ -13621,7 +13637,7 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
@@ -13632,14 +13648,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>610</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13652,26 +13668,24 @@
         <v>80</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>611</v>
+        <v>139</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>612</v>
+        <v>230</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O97" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
       </c>
@@ -13707,19 +13721,19 @@
         <v>80</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>613</v>
+        <v>182</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13758,37 +13772,39 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
       </c>
@@ -13836,31 +13852,31 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>617</v>
+        <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -13879,7 +13895,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>90</v>
@@ -13894,7 +13910,7 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>620</v>
@@ -13903,7 +13919,7 @@
         <v>621</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13956,7 +13972,7 @@
         <v>619</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>90</v>
@@ -13971,10 +13987,10 @@
         <v>622</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>362</v>
+        <v>111</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>623</v>
@@ -14011,7 +14027,7 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>625</v>
@@ -14020,7 +14036,7 @@
         <v>626</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14088,10 +14104,10 @@
         <v>627</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>628</v>
@@ -14116,7 +14132,7 @@
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>80</v>
@@ -14128,7 +14144,7 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>602</v>
+        <v>174</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>630</v>
@@ -14136,7 +14152,9 @@
       <c r="M101" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="N101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>80</v>
@@ -14191,7 +14209,7 @@
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>102</v>
@@ -14209,7 +14227,7 @@
         <v>111</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>80</v>
+        <v>633</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14217,10 +14235,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14231,7 +14249,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>80</v>
@@ -14243,13 +14261,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>174</v>
+        <v>607</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>175</v>
+        <v>635</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>176</v>
+        <v>636</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14300,22 +14318,22 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>177</v>
+        <v>634</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>80</v>
+        <v>637</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>80</v>
@@ -14332,21 +14350,21 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>80</v>
@@ -14358,17 +14376,15 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14405,31 +14421,31 @@
         <v>80</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>80</v>
@@ -14438,7 +14454,7 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>80</v>
@@ -14449,14 +14465,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>610</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14469,26 +14485,24 @@
         <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>611</v>
+        <v>139</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>612</v>
+        <v>230</v>
       </c>
       <c r="N104" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O104" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>80</v>
       </c>
@@ -14524,19 +14538,19 @@
         <v>80</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>613</v>
+        <v>182</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14568,44 +14582,46 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
       </c>
@@ -14653,28 +14669,28 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>639</v>
+        <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>80</v>
@@ -14685,10 +14701,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14711,16 +14727,16 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14746,13 +14762,13 @@
         <v>80</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>643</v>
+        <v>80</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>644</v>
+        <v>80</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
@@ -14770,7 +14786,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14785,23 +14801,140 @@
         <v>103</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="AL106" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM106" t="s" s="2">
+      <c r="B107" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N107" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AN106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO106" t="s" s="2">
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO106">
+  <autoFilter ref="A1:AO107">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14811,7 +14944,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI106">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T09:57:27+00:00</t>
+    <t>2024-02-15T13:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T13:54:33+00:00</t>
+    <t>2024-02-15T16:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1690,7 +1690,7 @@
     <t>ResearchStudy.description</t>
   </si>
   <si>
-    <t>Résumé de l'essai / Summary Results</t>
+    <t>Résumé de l'essai (description, durée de participation à l'essai clinique,etc) / Summary Results</t>
   </si>
   <si>
     <t>A full description of how the study is being conducted.</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="656">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:42:49+00:00</t>
+    <t>2024-02-15T16:43:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -539,6 +539,22 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-recruitment-status</t>
+  </si>
+  <si>
+    <t>eclaire-recruitment-status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-status}
+</t>
+  </si>
+  <si>
+    <t>Statut du recrutement / Recruitment status</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer le statut du recrutement</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
@@ -2347,7 +2363,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO107"/>
+  <dimension ref="A1:AO108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4033,7 +4049,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -4047,9 +4063,11 @@
         <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>80</v>
       </c>
@@ -4061,7 +4079,7 @@
         <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
@@ -4127,19 +4145,19 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4148,7 +4166,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -4159,10 +4177,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4173,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -4185,7 +4203,7 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>180</v>
@@ -4230,16 +4248,16 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>182</v>
@@ -4248,13 +4266,13 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -4263,7 +4281,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4285,10 +4303,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -4300,7 +4318,7 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>185</v>
@@ -4308,16 +4326,14 @@
       <c r="M17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>80</v>
@@ -4347,31 +4363,31 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4380,7 +4396,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4391,10 +4407,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4417,22 +4433,24 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>80</v>
@@ -4474,19 +4492,19 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4506,26 +4524,24 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -4534,13 +4550,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4591,19 +4607,19 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4612,7 +4628,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4743,11 +4759,13 @@
         <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4757,29 +4775,25 @@
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4815,19 +4829,19 @@
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4848,7 +4862,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4866,7 +4880,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4879,23 +4893,25 @@
         <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4932,10 +4948,10 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
@@ -4944,7 +4960,7 @@
         <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4956,34 +4972,32 @@
         <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4992,10 +5006,10 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
@@ -5004,17 +5018,17 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -5051,19 +5065,19 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5078,29 +5092,31 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5112,25 +5128,27 @@
         <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5178,53 +5196,53 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -5236,17 +5254,15 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5283,16 +5299,16 @@
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>182</v>
@@ -5301,13 +5317,13 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -5316,7 +5332,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5327,46 +5343,44 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5375,7 +5389,7 @@
         <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>80</v>
@@ -5390,52 +5404,52 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5446,10 +5460,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5457,7 +5471,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -5466,25 +5480,25 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5494,7 +5508,7 @@
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5509,13 +5523,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5533,7 +5547,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5551,10 +5565,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5565,10 +5579,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5591,19 +5605,19 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5616,7 +5630,7 @@
         <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>80</v>
@@ -5628,13 +5642,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5652,7 +5666,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5670,10 +5684,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5684,10 +5698,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5710,18 +5724,20 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5733,7 +5749,7 @@
         <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>80</v>
@@ -5769,7 +5785,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5787,10 +5803,10 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5801,10 +5817,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5827,16 +5843,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5850,7 +5866,7 @@
         <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>80</v>
@@ -5886,7 +5902,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5898,16 +5914,16 @@
         <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5918,10 +5934,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5941,18 +5957,20 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -6001,7 +6019,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6010,19 +6028,19 @@
         <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6033,21 +6051,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -6059,17 +6077,15 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6106,16 +6122,16 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>182</v>
@@ -6124,13 +6140,13 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6139,7 +6155,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6150,21 +6166,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6173,19 +6189,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6223,40 +6239,40 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6267,10 +6283,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6293,24 +6309,22 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q34" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6354,7 +6368,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6363,7 +6377,7 @@
         <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>103</v>
@@ -6372,10 +6386,10 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6386,10 +6400,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6412,22 +6426,24 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="R35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6471,7 +6487,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6480,19 +6496,19 @@
         <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6503,14 +6519,12 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6519,10 +6533,10 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6531,18 +6545,18 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6590,44 +6604,46 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6636,28 +6652,30 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6705,53 +6723,53 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6763,17 +6781,15 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6810,16 +6826,16 @@
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>182</v>
@@ -6828,13 +6844,13 @@
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6843,7 +6859,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6854,46 +6870,44 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6902,7 +6916,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6917,52 +6931,52 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6973,10 +6987,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6984,7 +6998,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>90</v>
@@ -6993,25 +7007,25 @@
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7021,7 +7035,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -7036,13 +7050,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -7060,7 +7074,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7078,10 +7092,10 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -7092,10 +7106,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7118,19 +7132,19 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7143,7 +7157,7 @@
         <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>80</v>
@@ -7155,13 +7169,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7179,7 +7193,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7197,10 +7211,10 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7211,10 +7225,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7237,18 +7251,20 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7260,7 +7276,7 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>80</v>
@@ -7296,7 +7312,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7314,10 +7330,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7328,10 +7344,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7354,16 +7370,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7377,7 +7393,7 @@
         <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>80</v>
@@ -7413,7 +7429,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7425,16 +7441,16 @@
         <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7445,10 +7461,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7471,16 +7487,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7530,7 +7546,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7542,16 +7558,16 @@
         <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7562,10 +7578,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7579,7 +7595,7 @@
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7588,16 +7604,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7647,7 +7663,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7659,19 +7675,19 @@
         <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7679,10 +7695,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7693,10 +7709,10 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7705,16 +7721,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7764,31 +7780,31 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>341</v>
+        <v>111</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7796,14 +7812,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7822,20 +7838,18 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7883,7 +7897,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7895,19 +7909,19 @@
         <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7915,44 +7929,46 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>113</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7976,13 +7992,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -8000,42 +8016,42 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8043,31 +8059,31 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8093,13 +8109,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -8117,10 +8133,10 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>90</v>
@@ -8132,27 +8148,27 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8166,7 +8182,7 @@
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -8175,16 +8191,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8210,11 +8226,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8232,7 +8250,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8247,16 +8265,16 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8264,10 +8282,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8278,7 +8296,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>91</v>
@@ -8290,16 +8308,16 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8325,11 +8343,11 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8347,13 +8365,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>102</v>
@@ -8362,16 +8380,16 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8379,10 +8397,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8396,7 +8414,7 @@
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8405,16 +8423,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8440,13 +8458,11 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8464,7 +8480,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8479,27 +8495,27 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8513,7 +8529,7 @@
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -8522,16 +8538,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8557,13 +8573,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8572,16 +8588,16 @@
         <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8596,31 +8612,29 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8641,16 +8655,16 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8676,13 +8690,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8691,16 +8705,16 @@
         <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8715,29 +8729,31 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8746,27 +8762,29 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>175</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8776,7 +8794,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>80</v>
@@ -8791,13 +8809,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8815,53 +8833,53 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>177</v>
+        <v>393</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8873,17 +8891,15 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8893,7 +8909,7 @@
         <v>80</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>80</v>
@@ -8920,16 +8936,16 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>182</v>
@@ -8938,13 +8954,13 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8953,7 +8969,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8964,14 +8980,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8987,23 +9003,21 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>406</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>139</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9039,19 +9053,19 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>411</v>
+        <v>187</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9063,16 +9077,16 @@
         <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9083,10 +9097,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9097,7 +9111,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9106,19 +9120,23 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9166,28 +9184,28 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>111</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9198,21 +9216,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9224,17 +9242,15 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9271,16 +9287,16 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>182</v>
@@ -9289,13 +9305,13 @@
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -9304,7 +9320,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9315,21 +9331,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9338,23 +9354,21 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>420</v>
+        <v>139</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9363,7 +9377,7 @@
         <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>80</v>
@@ -9390,40 +9404,40 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>187</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>427</v>
+        <v>104</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9434,10 +9448,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9460,18 +9474,20 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9480,7 +9496,7 @@
         <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>80</v>
@@ -9519,7 +9535,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9537,10 +9553,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9551,10 +9567,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9577,20 +9593,18 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9638,7 +9652,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9656,10 +9670,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9670,10 +9684,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9696,19 +9710,19 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9757,7 +9771,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9775,10 +9789,10 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9789,10 +9803,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9815,19 +9829,19 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>454</v>
+        <v>179</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9876,7 +9890,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9894,10 +9908,10 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9908,10 +9922,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9934,19 +9948,19 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>174</v>
+        <v>459</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9995,7 +10009,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10013,10 +10027,10 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -10027,14 +10041,12 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10043,10 +10055,10 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
@@ -10055,18 +10067,20 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10090,13 +10104,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10114,13 +10128,13 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>388</v>
+        <v>473</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>102</v>
@@ -10129,29 +10143,31 @@
         <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>367</v>
+        <v>475</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="D67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10160,27 +10176,29 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>175</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10190,7 +10208,7 @@
         <v>80</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>80</v>
@@ -10205,13 +10223,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10229,53 +10247,53 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>177</v>
+        <v>393</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10287,17 +10305,15 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10307,7 +10323,7 @@
         <v>80</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>80</v>
@@ -10334,16 +10350,16 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>182</v>
@@ -10352,13 +10368,13 @@
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10367,7 +10383,7 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10378,14 +10394,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10401,23 +10417,21 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>406</v>
+        <v>138</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>407</v>
+        <v>139</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10453,19 +10467,19 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>411</v>
+        <v>187</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10477,16 +10491,16 @@
         <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10497,10 +10511,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10508,10 +10522,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10523,19 +10537,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10584,13 +10598,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>102</v>
@@ -10602,10 +10616,10 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10616,10 +10630,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10627,13 +10641,13 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -10642,16 +10656,20 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>480</v>
+        <v>179</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10699,13 +10717,13 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>102</v>
@@ -10714,16 +10732,16 @@
         <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>111</v>
+        <v>475</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10731,10 +10749,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10745,25 +10763,25 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>174</v>
+        <v>485</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>175</v>
+        <v>486</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10814,22 +10832,22 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>177</v>
+        <v>484</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -10838,7 +10856,7 @@
         <v>111</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10846,21 +10864,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10872,17 +10890,15 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10919,16 +10935,16 @@
         <v>80</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>182</v>
@@ -10937,13 +10953,13 @@
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -10952,7 +10968,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10963,26 +10979,24 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
@@ -10991,15 +11005,17 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>489</v>
+        <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11036,19 +11052,19 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11069,7 +11085,7 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11083,7 +11099,7 @@
         <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>493</v>
@@ -11165,7 +11181,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11200,7 +11216,7 @@
         <v>497</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>498</v>
@@ -11282,7 +11298,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11317,7 +11333,7 @@
         <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>503</v>
@@ -11333,7 +11349,7 @@
         <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>80</v>
@@ -11399,7 +11415,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11434,9 +11450,11 @@
         <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11454,20 +11472,18 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>174</v>
+        <v>509</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11516,19 +11532,19 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>511</v>
+        <v>187</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11537,7 +11553,7 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -11562,7 +11578,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11574,15 +11590,17 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11637,22 +11655,22 @@
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>517</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>519</v>
+        <v>111</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11663,10 +11681,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11680,26 +11698,24 @@
         <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K80" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11748,7 +11764,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11760,19 +11776,19 @@
         <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>522</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>111</v>
+        <v>524</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11780,10 +11796,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11797,25 +11813,25 @@
         <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>245</v>
+        <v>526</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11841,10 +11857,10 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>80</v>
@@ -11865,7 +11881,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11880,16 +11896,16 @@
         <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11897,10 +11913,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11914,7 +11930,7 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
@@ -11923,16 +11939,16 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11958,13 +11974,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>250</v>
+        <v>388</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>537</v>
+        <v>80</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11982,7 +11998,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11997,16 +12013,16 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12014,10 +12030,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12028,7 +12044,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>91</v>
@@ -12037,19 +12053,19 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>542</v>
+        <v>367</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12075,13 +12091,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>80</v>
+        <v>541</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12099,13 +12115,13 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>102</v>
@@ -12117,13 +12133,13 @@
         <v>543</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>544</v>
+        <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12131,21 +12147,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>91</v>
@@ -12154,19 +12170,19 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12216,56 +12232,56 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>552</v>
+        <v>111</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>80</v>
@@ -12274,16 +12290,16 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>279</v>
+        <v>555</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12333,46 +12349,46 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>563</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12388,18 +12404,20 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>175</v>
+        <v>562</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12448,7 +12466,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>177</v>
+        <v>560</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12457,44 +12475,44 @@
         <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>80</v>
+        <v>565</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>111</v>
+        <v>566</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>80</v>
+        <v>567</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>80</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12506,17 +12524,15 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12553,16 +12569,16 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>182</v>
@@ -12571,13 +12587,13 @@
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12586,7 +12602,7 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>80</v>
@@ -12597,21 +12613,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12620,19 +12636,19 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>567</v>
+        <v>139</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12670,40 +12686,40 @@
         <v>80</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12714,10 +12730,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12731,7 +12747,7 @@
         <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>80</v>
@@ -12740,24 +12756,22 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q89" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12801,7 +12815,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12810,7 +12824,7 @@
         <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>103</v>
@@ -12819,10 +12833,10 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -12833,10 +12847,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12859,22 +12873,24 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>572</v>
+        <v>306</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="R90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12918,7 +12934,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>570</v>
+        <v>309</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12927,33 +12943,33 @@
         <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>573</v>
+        <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>574</v>
+        <v>311</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12967,7 +12983,7 @@
         <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
@@ -12976,16 +12992,16 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>578</v>
+        <v>314</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13035,7 +13051,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13047,30 +13063,30 @@
         <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>576</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13081,10 +13097,10 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>80</v>
@@ -13093,16 +13109,16 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13152,42 +13168,42 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AL92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="AO92" t="s" s="2">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13198,10 +13214,10 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>80</v>
@@ -13210,16 +13226,16 @@
         <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>245</v>
+        <v>590</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="N93" t="s" s="2">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13245,13 +13261,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>594</v>
+        <v>80</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13269,42 +13285,42 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>367</v>
+        <v>587</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13315,7 +13331,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -13324,19 +13340,19 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>603</v>
+        <v>367</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13362,13 +13378,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13386,13 +13402,13 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>102</v>
@@ -13401,27 +13417,27 @@
         <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>104</v>
+        <v>371</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>605</v>
+        <v>372</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>80</v>
+        <v>602</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>80</v>
+        <v>603</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13444,15 +13460,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13501,7 +13519,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13516,16 +13534,16 @@
         <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="AL95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AN95" t="s" s="2">
-        <v>611</v>
+        <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13533,10 +13551,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13547,7 +13565,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13559,13 +13577,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>174</v>
+        <v>612</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>175</v>
+        <v>613</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>176</v>
+        <v>614</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13616,22 +13634,22 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>177</v>
+        <v>611</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
@@ -13640,7 +13658,7 @@
         <v>111</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13648,21 +13666,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -13674,17 +13692,15 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -13721,16 +13737,16 @@
         <v>80</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>182</v>
@@ -13739,13 +13755,13 @@
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>80</v>
@@ -13754,7 +13770,7 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
@@ -13765,14 +13781,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>615</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13785,26 +13801,24 @@
         <v>80</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>616</v>
+        <v>139</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>617</v>
+        <v>235</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O98" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
       </c>
@@ -13840,19 +13854,19 @@
         <v>80</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>618</v>
+        <v>187</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13891,37 +13905,39 @@
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>80</v>
+        <v>620</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
       </c>
@@ -13969,31 +13985,31 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14012,7 +14028,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>90</v>
@@ -14027,7 +14043,7 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>625</v>
@@ -14036,7 +14052,7 @@
         <v>626</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14089,7 +14105,7 @@
         <v>624</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>90</v>
@@ -14104,10 +14120,10 @@
         <v>627</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>367</v>
+        <v>111</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>628</v>
@@ -14144,7 +14160,7 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>630</v>
@@ -14153,7 +14169,7 @@
         <v>631</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14221,10 +14237,10 @@
         <v>632</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>633</v>
@@ -14249,7 +14265,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>80</v>
@@ -14261,7 +14277,7 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>607</v>
+        <v>179</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>635</v>
@@ -14269,7 +14285,9 @@
       <c r="M102" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="N102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14324,7 +14342,7 @@
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>102</v>
@@ -14342,7 +14360,7 @@
         <v>111</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>80</v>
+        <v>638</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14350,10 +14368,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14364,7 +14382,7 @@
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>80</v>
@@ -14376,13 +14394,13 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>174</v>
+        <v>612</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>175</v>
+        <v>640</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>176</v>
+        <v>641</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14433,22 +14451,22 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>177</v>
+        <v>639</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>80</v>
+        <v>642</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>80</v>
@@ -14465,21 +14483,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>80</v>
@@ -14491,17 +14509,15 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14538,16 +14554,16 @@
         <v>80</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>182</v>
@@ -14556,13 +14572,13 @@
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
@@ -14571,7 +14587,7 @@
         <v>80</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>80</v>
@@ -14582,14 +14598,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>615</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14602,26 +14618,24 @@
         <v>80</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>616</v>
+        <v>139</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>617</v>
+        <v>235</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O105" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>80</v>
       </c>
@@ -14657,19 +14671,19 @@
         <v>80</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>618</v>
+        <v>187</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14701,44 +14715,46 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>80</v>
+        <v>620</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
       </c>
@@ -14786,28 +14802,28 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>644</v>
+        <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>80</v>
@@ -14818,10 +14834,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14844,16 +14860,16 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14879,13 +14895,13 @@
         <v>80</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>648</v>
+        <v>80</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>649</v>
+        <v>80</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>80</v>
@@ -14903,7 +14919,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14918,23 +14934,140 @@
         <v>103</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AL107" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM107" t="s" s="2">
+      <c r="B108" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AN107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO107" t="s" s="2">
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO108" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO107">
+  <autoFilter ref="A1:AO108">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14944,7 +15077,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:43:54+00:00</t>
+    <t>2024-02-15T17:28:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1155,7 +1155,7 @@
     <t>ResearchStudy.primaryPurposeType</t>
   </si>
   <si>
-    <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
+    <t>Objectif principal / Primary purpose</t>
   </si>
   <si>
     <t>The type of study based upon the intent of the study's activities. A classification of the intent of the study.</t>
@@ -8182,7 +8182,7 @@
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$109</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4077" uniqueCount="661">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T17:28:18+00:00</t>
+    <t>2024-02-16T08:51:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1933,6 +1933,22 @@
   </si>
   <si>
     <t>ResearchStudy.arm.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.arm.extension:eclaire-arm-intervention</t>
+  </si>
+  <si>
+    <t>eclaire-arm-intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-arm-intervention}
+</t>
+  </si>
+  <si>
+    <t>Intervention / For each arm of the trial record a brief intervention name plus an intervention description.</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer les 'Interventions' dans les cohortes</t>
   </si>
   <si>
     <t>ResearchStudy.arm.modifierExtension</t>
@@ -2363,7 +2379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO108"/>
+  <dimension ref="A1:AO109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13901,11 +13917,13 @@
         <v>619</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>620</v>
+      </c>
       <c r="D99" t="s" s="2">
-        <v>620</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13915,29 +13933,25 @@
         <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>138</v>
+        <v>621</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>80</v>
       </c>
@@ -13985,7 +13999,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>623</v>
+        <v>187</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14006,7 +14020,7 @@
         <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>80</v>
@@ -14024,37 +14038,39 @@
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>80</v>
+        <v>625</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
       </c>
@@ -14102,31 +14118,31 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>627</v>
+        <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>628</v>
+        <v>80</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14145,7 +14161,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>90</v>
@@ -14160,7 +14176,7 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>630</v>
@@ -14169,7 +14185,7 @@
         <v>631</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14222,7 +14238,7 @@
         <v>629</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>90</v>
@@ -14237,10 +14253,10 @@
         <v>632</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>633</v>
@@ -14277,7 +14293,7 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>635</v>
@@ -14286,7 +14302,7 @@
         <v>636</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14354,10 +14370,10 @@
         <v>637</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>638</v>
@@ -14382,7 +14398,7 @@
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>80</v>
@@ -14394,7 +14410,7 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>612</v>
+        <v>179</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>640</v>
@@ -14402,7 +14418,9 @@
       <c r="M103" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="N103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14457,7 +14475,7 @@
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>102</v>
@@ -14475,7 +14493,7 @@
         <v>111</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>80</v>
+        <v>643</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
@@ -14483,10 +14501,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14497,7 +14515,7 @@
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>80</v>
@@ -14509,13 +14527,13 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>179</v>
+        <v>612</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>180</v>
+        <v>645</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>181</v>
+        <v>646</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14566,22 +14584,22 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>182</v>
+        <v>644</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>80</v>
+        <v>647</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>80</v>
@@ -14598,21 +14616,21 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>80</v>
@@ -14624,17 +14642,15 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -14671,31 +14687,31 @@
         <v>80</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>80</v>
@@ -14704,7 +14720,7 @@
         <v>80</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>80</v>
@@ -14715,14 +14731,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>620</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14735,26 +14751,24 @@
         <v>80</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>621</v>
+        <v>139</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>622</v>
+        <v>235</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O106" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>80</v>
       </c>
@@ -14790,19 +14804,19 @@
         <v>80</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>623</v>
+        <v>187</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14834,44 +14848,46 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>80</v>
+        <v>625</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
       </c>
@@ -14919,28 +14935,28 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>649</v>
+        <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>80</v>
@@ -14951,10 +14967,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14977,16 +14993,16 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15012,13 +15028,13 @@
         <v>80</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>653</v>
+        <v>80</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>654</v>
+        <v>80</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>80</v>
@@ -15036,7 +15052,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15051,23 +15067,140 @@
         <v>103</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="AL108" t="s" s="2">
+      <c r="B109" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AL109" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM108" t="s" s="2">
+      <c r="AM109" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO108" t="s" s="2">
+      <c r="AN109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO109" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO108">
+  <autoFilter ref="A1:AO109">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15077,7 +15210,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI107">
+  <conditionalFormatting sqref="A2:AI108">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$110</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4077" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="666">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T08:51:01+00:00</t>
+    <t>2024-02-16T15:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -493,6 +493,22 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout d'une date de révision fonctionnelle lorque que l'on souhaite indiquer la date de la dernière modification substancielle</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-approval-date</t>
+  </si>
+  <si>
+    <t>eclaire-approval-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-approval-date}
+</t>
+  </si>
+  <si>
+    <t>Date d'approbation du comité éthique</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout la date d'approbation du comité éthique</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-therapeutic-area</t>
   </si>
   <si>
@@ -525,22 +541,6 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de la période prévisionnelle de recrutement l'essai</t>
   </si>
   <si>
-    <t>ResearchStudy.extension:eclaire-secondary-sponsor</t>
-  </si>
-  <si>
-    <t>eclaire-secondary-sponsor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-secondary-sponsor}
-</t>
-  </si>
-  <si>
-    <t>Promoteur(s) secondaire(s) / Secondary Sponsor(s)</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
-  </si>
-  <si>
     <t>ResearchStudy.extension:eclaire-recruitment-status</t>
   </si>
   <si>
@@ -663,6 +663,22 @@
     <t>Cette extension implemente l'élément outcomeMeasure de R5. elle permet l'ajout des conséquences principales et secondaires de l'essai</t>
   </si>
   <si>
+    <t>ResearchStudy.extension:eclaire-associated-party-r5</t>
+  </si>
+  <si>
+    <t>eclaire-associated-party-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sponsor, collaborateurs et autres parties / Sponsors, collaborators, and other parties </t>
+  </si>
+  <si>
+    <t>Cette extension implemente l'élément associatedParty de R5 http://hl7.org/fhir/R5/researchstudy-definitions.html#ResearchStudy.associatedParty. elle permet l'ajout des sponsors, collaborateurs et autres parties</t>
+  </si>
+  <si>
     <t>ResearchStudy.extension:eclaire-label-r5</t>
   </si>
   <si>
@@ -1802,7 +1818,7 @@
     <t>ResearchStudy.sponsor</t>
   </si>
   <si>
-    <t>Promoteur / primary Sponsor</t>
+    <t>Organization that initiates and is legally responsible for the study</t>
   </si>
   <si>
     <t>An organization that initiates the investigation and is legally responsible for the study.</t>
@@ -2379,7 +2395,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO109"/>
+  <dimension ref="A1:AO110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2398,7 +2414,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.57421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3858,7 +3874,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>91</v>
@@ -4892,11 +4908,13 @@
         <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4906,29 +4924,25 @@
         <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4964,19 +4978,19 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4997,7 +5011,7 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -5015,7 +5029,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5028,23 +5042,25 @@
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -5081,10 +5097,10 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
@@ -5093,7 +5109,7 @@
         <v>144</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5105,34 +5121,32 @@
         <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5141,10 +5155,10 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
@@ -5153,17 +5167,17 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5200,19 +5214,19 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5227,29 +5241,31 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5261,25 +5277,27 @@
         <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5327,53 +5345,53 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5385,17 +5403,15 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5432,31 +5448,31 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5465,7 +5481,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5476,46 +5492,44 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5524,7 +5538,7 @@
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5539,52 +5553,52 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5595,10 +5609,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5606,7 +5620,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -5615,25 +5629,25 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5643,7 +5657,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5658,13 +5672,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5682,7 +5696,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5700,10 +5714,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5714,10 +5728,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5740,19 +5754,19 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5765,7 +5779,7 @@
         <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>80</v>
@@ -5777,13 +5791,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5801,7 +5815,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5819,10 +5833,10 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5833,10 +5847,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5859,18 +5873,20 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5882,7 +5898,7 @@
         <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>80</v>
@@ -5918,7 +5934,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5936,10 +5952,10 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5950,10 +5966,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5976,16 +5992,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5999,7 +6015,7 @@
         <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>80</v>
@@ -6035,7 +6051,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6047,16 +6063,16 @@
         <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6067,10 +6083,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6090,18 +6106,20 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6150,7 +6168,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6159,19 +6177,19 @@
         <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6182,21 +6200,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6208,17 +6226,15 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6255,31 +6271,31 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6288,7 +6304,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6299,21 +6315,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6322,19 +6338,19 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6372,40 +6388,40 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>187</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6416,10 +6432,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6442,24 +6458,22 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q35" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6503,7 +6517,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6512,7 +6526,7 @@
         <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>103</v>
@@ -6521,10 +6535,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6535,10 +6549,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6561,22 +6575,24 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="R36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6620,7 +6636,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6629,19 +6645,19 @@
         <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6652,14 +6668,12 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6668,10 +6682,10 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
@@ -6680,18 +6694,18 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6739,44 +6753,46 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6785,28 +6801,30 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>180</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6854,53 +6872,53 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6912,17 +6930,15 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6959,31 +6975,31 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6992,7 +7008,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -7003,46 +7019,44 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -7051,7 +7065,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -7066,52 +7080,52 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -7122,10 +7136,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7133,7 +7147,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -7142,25 +7156,25 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7170,7 +7184,7 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>80</v>
@@ -7185,13 +7199,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7209,7 +7223,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7227,10 +7241,10 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7241,10 +7255,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7267,19 +7281,19 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7292,7 +7306,7 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>80</v>
@@ -7304,13 +7318,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7328,7 +7342,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7346,10 +7360,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7360,10 +7374,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7386,18 +7400,20 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7409,7 +7425,7 @@
         <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>80</v>
@@ -7445,7 +7461,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7463,10 +7479,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7477,10 +7493,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7503,16 +7519,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7526,7 +7542,7 @@
         <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>80</v>
@@ -7562,7 +7578,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7574,16 +7590,16 @@
         <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7594,10 +7610,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7620,16 +7636,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7679,7 +7695,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7691,16 +7707,16 @@
         <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7711,10 +7727,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7728,7 +7744,7 @@
         <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7737,16 +7753,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7796,7 +7812,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7808,19 +7824,19 @@
         <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>111</v>
+        <v>326</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7828,10 +7844,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7842,10 +7858,10 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>80</v>
@@ -7854,16 +7870,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7913,31 +7929,31 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>346</v>
+        <v>111</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7945,14 +7961,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7971,20 +7987,18 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -8032,7 +8046,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8044,19 +8058,19 @@
         <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8064,44 +8078,46 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8125,13 +8141,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -8149,42 +8165,42 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8192,7 +8208,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>90</v>
@@ -8201,22 +8217,22 @@
         <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8242,13 +8258,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8266,10 +8282,10 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>90</v>
@@ -8281,27 +8297,27 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8324,16 +8340,16 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8359,11 +8375,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8381,7 +8399,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8396,16 +8414,16 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8413,10 +8431,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8427,7 +8445,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>91</v>
@@ -8439,16 +8457,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8474,11 +8492,11 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8496,13 +8514,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>102</v>
@@ -8511,16 +8529,16 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8528,10 +8546,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8545,7 +8563,7 @@
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -8554,16 +8572,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8589,13 +8607,11 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8613,7 +8629,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8628,27 +8644,27 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8662,7 +8678,7 @@
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8671,16 +8687,16 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8706,13 +8722,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8721,16 +8737,16 @@
         <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8745,31 +8761,29 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8790,16 +8804,16 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8825,13 +8839,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8840,16 +8854,16 @@
         <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8864,29 +8878,31 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8895,27 +8911,29 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>180</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8925,7 +8943,7 @@
         <v>80</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>80</v>
@@ -8940,13 +8958,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8964,53 +8982,53 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>182</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -9022,17 +9040,15 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9042,7 +9058,7 @@
         <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>80</v>
@@ -9069,31 +9085,31 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9102,7 +9118,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9113,14 +9129,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9136,23 +9152,21 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>139</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>413</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9188,19 +9202,19 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>416</v>
+        <v>187</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9212,16 +9226,16 @@
         <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>418</v>
+        <v>104</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9232,10 +9246,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9246,7 +9260,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9255,19 +9269,23 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>179</v>
+        <v>416</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>180</v>
+        <v>417</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9315,28 +9333,28 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>111</v>
+        <v>423</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9347,21 +9365,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9373,17 +9391,15 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9420,31 +9436,31 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -9453,7 +9469,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9464,21 +9480,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9487,23 +9503,21 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>139</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>240</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9512,7 +9526,7 @@
         <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>80</v>
@@ -9539,40 +9553,40 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>430</v>
+        <v>187</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>432</v>
+        <v>104</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9583,10 +9597,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9609,18 +9623,20 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9629,7 +9645,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9668,7 +9684,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9686,10 +9702,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9700,10 +9716,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9726,20 +9742,18 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9787,7 +9801,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9805,10 +9819,10 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9819,10 +9833,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9845,19 +9859,19 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9906,7 +9920,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9924,10 +9938,10 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9938,10 +9952,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9964,19 +9978,19 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>459</v>
+        <v>179</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10025,7 +10039,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10043,10 +10057,10 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -10057,10 +10071,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10083,19 +10097,19 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>179</v>
+        <v>464</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10144,7 +10158,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10162,10 +10176,10 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -10176,14 +10190,12 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10192,10 +10204,10 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
@@ -10204,18 +10216,20 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>395</v>
+        <v>475</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10239,13 +10253,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10263,13 +10277,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>393</v>
+        <v>478</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>102</v>
@@ -10278,29 +10292,31 @@
         <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>371</v>
+        <v>479</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10309,27 +10325,29 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>180</v>
+        <v>483</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10339,7 +10357,7 @@
         <v>80</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>80</v>
@@ -10354,13 +10372,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10378,53 +10396,53 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>182</v>
+        <v>398</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10436,17 +10454,15 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10456,7 +10472,7 @@
         <v>80</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>80</v>
@@ -10483,31 +10499,31 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10516,7 +10532,7 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10527,14 +10543,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10550,23 +10566,21 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>411</v>
+        <v>138</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>412</v>
+        <v>139</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>413</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10602,19 +10616,19 @@
         <v>80</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>416</v>
+        <v>187</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10626,16 +10640,16 @@
         <v>102</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>418</v>
+        <v>104</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10646,10 +10660,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10657,10 +10671,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10672,19 +10686,19 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>179</v>
+        <v>416</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10733,13 +10747,13 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>102</v>
@@ -10751,10 +10765,10 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>474</v>
+        <v>422</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10765,10 +10779,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10776,13 +10790,13 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
@@ -10791,16 +10805,20 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>485</v>
+        <v>179</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10848,13 +10866,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>102</v>
@@ -10863,16 +10881,16 @@
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>111</v>
+        <v>480</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>489</v>
+        <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10880,10 +10898,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10894,25 +10912,25 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>179</v>
+        <v>490</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>180</v>
+        <v>491</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>181</v>
+        <v>492</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10963,22 +10981,22 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>182</v>
+        <v>489</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10987,7 +11005,7 @@
         <v>111</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10995,21 +11013,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11021,17 +11039,15 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11068,31 +11084,31 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11101,7 +11117,7 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11112,26 +11128,24 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>80</v>
@@ -11140,15 +11154,17 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>494</v>
+        <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>495</v>
+        <v>139</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11185,16 +11201,16 @@
         <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>187</v>
@@ -11218,7 +11234,7 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11232,7 +11248,7 @@
         <v>497</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>498</v>
@@ -11349,7 +11365,7 @@
         <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>503</v>
@@ -11466,7 +11482,7 @@
         <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>508</v>
@@ -11482,7 +11498,7 @@
         <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
@@ -11583,9 +11599,11 @@
         <v>512</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11603,20 +11621,18 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>179</v>
+        <v>514</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11665,19 +11681,19 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>516</v>
+        <v>187</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11686,7 +11702,7 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11711,7 +11727,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11723,15 +11739,17 @@
         <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11786,22 +11804,22 @@
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>522</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>524</v>
+        <v>111</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11812,10 +11830,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11829,26 +11847,24 @@
         <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K81" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11897,7 +11913,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11909,19 +11925,19 @@
         <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>527</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>111</v>
+        <v>529</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11929,10 +11945,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11946,25 +11962,25 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>250</v>
+        <v>531</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11990,10 +12006,10 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>80</v>
@@ -12014,7 +12030,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12029,16 +12045,16 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12046,10 +12062,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12063,7 +12079,7 @@
         <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>80</v>
@@ -12072,16 +12088,16 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12107,13 +12123,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>255</v>
+        <v>393</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>542</v>
+        <v>80</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12131,7 +12147,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12146,16 +12162,16 @@
         <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12163,10 +12179,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12177,7 +12193,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>91</v>
@@ -12186,19 +12202,19 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>547</v>
+        <v>372</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12224,13 +12240,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -12248,13 +12264,13 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>102</v>
@@ -12266,13 +12282,13 @@
         <v>548</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12280,21 +12296,21 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>551</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>91</v>
@@ -12303,19 +12319,19 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12365,56 +12381,56 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>557</v>
+        <v>111</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>559</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>80</v>
@@ -12423,16 +12439,16 @@
         <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>281</v>
+        <v>557</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>284</v>
+        <v>560</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12482,46 +12498,46 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>568</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12537,18 +12553,20 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>180</v>
+        <v>567</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12597,7 +12615,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>182</v>
+        <v>565</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12606,44 +12624,44 @@
         <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>111</v>
+        <v>571</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>80</v>
+        <v>572</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12655,17 +12673,15 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12702,31 +12718,31 @@
         <v>80</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
@@ -12735,7 +12751,7 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12746,21 +12762,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12769,19 +12785,19 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>572</v>
+        <v>139</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12819,40 +12835,40 @@
         <v>80</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>299</v>
+        <v>187</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -12863,10 +12879,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12880,7 +12896,7 @@
         <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>80</v>
@@ -12889,24 +12905,22 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q90" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12950,7 +12964,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12959,7 +12973,7 @@
         <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>103</v>
@@ -12968,10 +12982,10 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -12982,10 +12996,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13008,22 +13022,24 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>577</v>
+        <v>311</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="R91" t="s" s="2">
         <v>80</v>
       </c>
@@ -13067,7 +13083,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>575</v>
+        <v>314</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13076,33 +13092,33 @@
         <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>578</v>
+        <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>579</v>
+        <v>316</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13113,7 +13129,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13125,16 +13141,16 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>583</v>
+        <v>319</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13184,7 +13200,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13196,30 +13212,30 @@
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>581</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13230,10 +13246,10 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>80</v>
@@ -13242,16 +13258,16 @@
         <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="N93" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13301,42 +13317,42 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="AO93" t="s" s="2">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13347,10 +13363,10 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>80</v>
@@ -13359,16 +13375,16 @@
         <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>250</v>
+        <v>595</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="N94" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13394,13 +13410,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>599</v>
+        <v>80</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13418,42 +13434,42 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>372</v>
+        <v>592</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13464,7 +13480,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13473,19 +13489,19 @@
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>605</v>
+        <v>255</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>608</v>
+        <v>372</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13511,13 +13527,13 @@
         <v>80</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>80</v>
+        <v>604</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>80</v>
+        <v>605</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
@@ -13535,13 +13551,13 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>102</v>
@@ -13550,27 +13566,27 @@
         <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>104</v>
+        <v>376</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>610</v>
+        <v>377</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>607</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13593,15 +13609,17 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M96" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13650,7 +13668,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13665,16 +13683,16 @@
         <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AL96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AN96" t="s" s="2">
-        <v>616</v>
+        <v>80</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13682,10 +13700,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13696,7 +13714,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -13708,13 +13726,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>179</v>
+        <v>617</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>180</v>
+        <v>618</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>181</v>
+        <v>619</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13765,22 +13783,22 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>182</v>
+        <v>616</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>80</v>
+        <v>620</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
@@ -13789,7 +13807,7 @@
         <v>111</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>80</v>
+        <v>621</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -13797,21 +13815,21 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
@@ -13823,17 +13841,15 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13870,31 +13886,31 @@
         <v>80</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
@@ -13903,7 +13919,7 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
@@ -13914,16 +13930,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13933,7 +13947,7 @@
         <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>80</v>
@@ -13942,15 +13956,17 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>621</v>
+        <v>138</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>622</v>
+        <v>139</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -13987,16 +14003,16 @@
         <v>80</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>187</v>
@@ -14020,7 +14036,7 @@
         <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>80</v>
@@ -14034,11 +14050,13 @@
         <v>624</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="D100" t="s" s="2">
-        <v>625</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14048,29 +14066,25 @@
         <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>138</v>
+        <v>626</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>80</v>
       </c>
@@ -14118,7 +14132,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>628</v>
+        <v>187</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14139,7 +14153,7 @@
         <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>80</v>
@@ -14157,37 +14171,39 @@
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>80</v>
       </c>
@@ -14235,31 +14251,31 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>632</v>
+        <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>633</v>
+        <v>80</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14278,7 +14294,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>90</v>
@@ -14293,7 +14309,7 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>635</v>
@@ -14302,7 +14318,7 @@
         <v>636</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14355,7 +14371,7 @@
         <v>634</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>90</v>
@@ -14370,10 +14386,10 @@
         <v>637</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>638</v>
@@ -14410,7 +14426,7 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>640</v>
@@ -14419,7 +14435,7 @@
         <v>641</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14487,10 +14503,10 @@
         <v>642</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>643</v>
@@ -14515,7 +14531,7 @@
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>80</v>
@@ -14527,7 +14543,7 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>612</v>
+        <v>179</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>645</v>
@@ -14535,7 +14551,9 @@
       <c r="M104" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="N104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14590,7 +14608,7 @@
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>102</v>
@@ -14608,7 +14626,7 @@
         <v>111</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>80</v>
+        <v>648</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>80</v>
@@ -14616,10 +14634,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14630,7 +14648,7 @@
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>80</v>
@@ -14642,13 +14660,13 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>179</v>
+        <v>617</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>180</v>
+        <v>650</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>181</v>
+        <v>651</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14699,22 +14717,22 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>182</v>
+        <v>649</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>80</v>
+        <v>652</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>80</v>
@@ -14731,21 +14749,21 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>80</v>
@@ -14757,17 +14775,15 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -14804,31 +14820,31 @@
         <v>80</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>80</v>
@@ -14837,7 +14853,7 @@
         <v>80</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>80</v>
@@ -14848,14 +14864,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>625</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14868,26 +14884,24 @@
         <v>80</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>626</v>
+        <v>139</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>627</v>
+        <v>240</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O107" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>80</v>
       </c>
@@ -14923,19 +14937,19 @@
         <v>80</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>628</v>
+        <v>187</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14967,44 +14981,46 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>80</v>
       </c>
@@ -15052,28 +15068,28 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>654</v>
+        <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>80</v>
@@ -15084,10 +15100,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15110,16 +15126,16 @@
         <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15145,13 +15161,13 @@
         <v>80</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>658</v>
+        <v>80</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>659</v>
+        <v>80</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -15169,7 +15185,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15184,23 +15200,140 @@
         <v>103</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="AL109" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM109" t="s" s="2">
+      <c r="B110" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO109" t="s" s="2">
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO110" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO109">
+  <autoFilter ref="A1:AO110">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15210,7 +15343,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI108">
+  <conditionalFormatting sqref="A2:AI109">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T15:42:28+00:00</t>
+    <t>2024-02-19T18:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11615,7 +11615,7 @@
         <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:04:21+00:00</t>
+    <t>2024-02-25T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T14:21:10+00:00</t>
+    <t>2024-02-25T15:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T15:41:48+00:00</t>
+    <t>2024-02-26T09:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:09:46+00:00</t>
+    <t>2024-02-26T09:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/main/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:34:45+00:00</t>
+    <t>2024-02-26T09:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
